--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,6 +735,17 @@
       </c>
       <c r="C28" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>43925</v>
+      </c>
+      <c r="B29" s="2">
+        <v>70</v>
+      </c>
+      <c r="C29" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -750,10 +761,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,6 +1082,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>43925</v>
+      </c>
+      <c r="B29" s="2">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1080,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,6 +1423,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>43925</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,6 +746,17 @@
       </c>
       <c r="C29" s="2">
         <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>43926</v>
+      </c>
+      <c r="B30" s="2">
+        <v>88</v>
+      </c>
+      <c r="C30" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -761,10 +772,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,6 +1104,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>43926</v>
+      </c>
+      <c r="B30" s="2">
+        <v>30</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1102,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,6 +1456,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>43926</v>
+      </c>
+      <c r="B30" s="1">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Death!$A$1:$C$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Recoverd!$A$1:$C$28</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -416,9 +416,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -757,6 +757,18 @@
       </c>
       <c r="C30" s="2">
         <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>43927</v>
+      </c>
+      <c r="B31" s="2">
+        <f>SUM(B30+C31)</f>
+        <v>123</v>
+      </c>
+      <c r="C31" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -772,10 +784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,6 +1127,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>43927</v>
+      </c>
+      <c r="B31" s="2">
+        <f>SUM(B30+C31)</f>
+        <v>33</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1124,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,6 +1491,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>43927</v>
+      </c>
+      <c r="B31" s="2">
+        <f>SUM(B30+C31)</f>
+        <v>12</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,6 +769,18 @@
       </c>
       <c r="C31" s="2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>43928</v>
+      </c>
+      <c r="B32" s="2">
+        <f>SUM(B31+C32)</f>
+        <v>164</v>
+      </c>
+      <c r="C32" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -784,10 +796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,6 +1151,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>43928</v>
+      </c>
+      <c r="B32" s="2">
+        <f>SUM(B31+C32)</f>
+        <v>33</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1148,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,6 +1527,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>43928</v>
+      </c>
+      <c r="B32" s="2">
+        <f>SUM(B31+C32)</f>
+        <v>17</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,6 +781,18 @@
       </c>
       <c r="C32" s="2">
         <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>43929</v>
+      </c>
+      <c r="B33" s="2">
+        <f>SUM(B32+C33)</f>
+        <v>218</v>
+      </c>
+      <c r="C33" s="2">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -796,10 +808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,6 +1175,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>43929</v>
+      </c>
+      <c r="B33" s="2">
+        <f>SUM(B32+C33)</f>
+        <v>33</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1172,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,6 +1563,18 @@
         <v>5</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>43929</v>
+      </c>
+      <c r="B33" s="2">
+        <f>SUM(B32+C33)</f>
+        <v>20</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,6 +793,18 @@
       </c>
       <c r="C33" s="2">
         <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>43930</v>
+      </c>
+      <c r="B34" s="2">
+        <f>SUM(B33+C34)</f>
+        <v>330</v>
+      </c>
+      <c r="C34" s="2">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -808,10 +820,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B33" sqref="B33:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,6 +1199,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>43930</v>
+      </c>
+      <c r="B34" s="2">
+        <f>SUM(B33+C34)</f>
+        <v>33</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1196,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,6 +1599,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>43930</v>
+      </c>
+      <c r="B34" s="2">
+        <f>SUM(B33+C34)</f>
+        <v>21</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -822,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1135,10 +1135,10 @@
         <v>43924</v>
       </c>
       <c r="B28" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1157,10 +1157,10 @@
         <v>43926</v>
       </c>
       <c r="B30" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C30" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1168,11 +1168,10 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f>SUM(B30+C31)</f>
         <v>33</v>
       </c>
       <c r="C31" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1180,7 +1179,6 @@
         <v>43928</v>
       </c>
       <c r="B32" s="2">
-        <f>SUM(B31+C32)</f>
         <v>33</v>
       </c>
       <c r="C32" s="2">
@@ -1192,7 +1190,6 @@
         <v>43929</v>
       </c>
       <c r="B33" s="2">
-        <f>SUM(B32+C33)</f>
         <v>33</v>
       </c>
       <c r="C33" s="2">
@@ -1204,7 +1201,6 @@
         <v>43930</v>
       </c>
       <c r="B34" s="2">
-        <f>SUM(B33+C34)</f>
         <v>33</v>
       </c>
       <c r="C34" s="2">

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,6 +805,18 @@
       </c>
       <c r="C34" s="2">
         <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>43931</v>
+      </c>
+      <c r="B35" s="2">
+        <f>SUM(B34+C35)</f>
+        <v>424</v>
+      </c>
+      <c r="C35" s="2">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -820,10 +832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,6 +1219,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>43931</v>
+      </c>
+      <c r="B35" s="2">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1216,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B34"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,6 +1630,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>43931</v>
+      </c>
+      <c r="B35" s="2">
+        <f>SUM(B34+C35)</f>
+        <v>27</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,6 +817,18 @@
       </c>
       <c r="C35" s="2">
         <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>43932</v>
+      </c>
+      <c r="B36" s="2">
+        <f>SUM(B35+C36)</f>
+        <v>482</v>
+      </c>
+      <c r="C36" s="2">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -832,10 +844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,6 +1242,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>43932</v>
+      </c>
+      <c r="B36" s="2">
+        <f>SUM(B35+C36)</f>
+        <v>36</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1239,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,6 +1666,18 @@
         <v>6</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>43932</v>
+      </c>
+      <c r="B36" s="2">
+        <f>SUM(B35+C36)</f>
+        <v>30</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Death!$A$1:$C$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Recoverd!$A$1:$C$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:B36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f>SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B37" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -776,7 +776,7 @@
         <v>43928</v>
       </c>
       <c r="B32" s="2">
-        <f>SUM(B31+C32)</f>
+        <f t="shared" si="0"/>
         <v>164</v>
       </c>
       <c r="C32" s="2">
@@ -788,7 +788,7 @@
         <v>43929</v>
       </c>
       <c r="B33" s="2">
-        <f>SUM(B32+C33)</f>
+        <f t="shared" si="0"/>
         <v>218</v>
       </c>
       <c r="C33" s="2">
@@ -800,7 +800,7 @@
         <v>43930</v>
       </c>
       <c r="B34" s="2">
-        <f>SUM(B33+C34)</f>
+        <f t="shared" si="0"/>
         <v>330</v>
       </c>
       <c r="C34" s="2">
@@ -812,7 +812,7 @@
         <v>43931</v>
       </c>
       <c r="B35" s="2">
-        <f>SUM(B34+C35)</f>
+        <f t="shared" si="0"/>
         <v>424</v>
       </c>
       <c r="C35" s="2">
@@ -824,11 +824,23 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f>SUM(B35+C36)</f>
+        <f t="shared" si="0"/>
         <v>482</v>
       </c>
       <c r="C36" s="2">
         <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>43933</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>621</v>
+      </c>
+      <c r="C37" s="2">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -844,10 +856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,6 +1266,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>43933</v>
+      </c>
+      <c r="B37" s="2">
+        <f>SUM(B36+C37)</f>
+        <v>36</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1263,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1635,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f>SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B37" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -1623,7 +1647,7 @@
         <v>43928</v>
       </c>
       <c r="B32" s="2">
-        <f>SUM(B31+C32)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C32" s="2">
@@ -1635,7 +1659,7 @@
         <v>43929</v>
       </c>
       <c r="B33" s="2">
-        <f>SUM(B32+C33)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C33" s="2">
@@ -1647,7 +1671,7 @@
         <v>43930</v>
       </c>
       <c r="B34" s="2">
-        <f>SUM(B33+C34)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C34" s="2">
@@ -1659,7 +1683,7 @@
         <v>43931</v>
       </c>
       <c r="B35" s="2">
-        <f>SUM(B34+C35)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C35" s="2">
@@ -1671,11 +1695,23 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f>SUM(B35+C36)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>43933</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -858,7 +858,438 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43898</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>43899</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>43900</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>43901</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>43902</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>43903</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>43904</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>43905</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43906</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>43907</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43908</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>43909</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>43910</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>43911</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>43912</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>43913</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43914</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>43915</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>43916</v>
+      </c>
+      <c r="B20" s="2">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B21" s="2">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>43918</v>
+      </c>
+      <c r="B22" s="2">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>43919</v>
+      </c>
+      <c r="B23" s="2">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>43920</v>
+      </c>
+      <c r="B24" s="2">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>43921</v>
+      </c>
+      <c r="B25" s="2">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>43922</v>
+      </c>
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>43923</v>
+      </c>
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>43924</v>
+      </c>
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>43925</v>
+      </c>
+      <c r="B29" s="2">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>43926</v>
+      </c>
+      <c r="B30" s="2">
+        <v>33</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>43927</v>
+      </c>
+      <c r="B31" s="2">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>43928</v>
+      </c>
+      <c r="B32" s="2">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>43929</v>
+      </c>
+      <c r="B33" s="2">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>43930</v>
+      </c>
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>43931</v>
+      </c>
+      <c r="B35" s="2">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>43932</v>
+      </c>
+      <c r="B36" s="2">
+        <f>SUM(B35+C36)</f>
+        <v>36</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>43933</v>
+      </c>
+      <c r="B37" s="2">
+        <f>SUM(B36+C37)</f>
+        <v>39</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C28"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -874,437 +1305,6 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43898</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43899</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43900</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43901</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43902</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43903</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43904</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43905</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43906</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43907</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43908</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43909</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43910</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43911</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43912</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>43913</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43914</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>43915</v>
-      </c>
-      <c r="B19" s="2">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>43916</v>
-      </c>
-      <c r="B20" s="2">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>43917</v>
-      </c>
-      <c r="B21" s="2">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>43918</v>
-      </c>
-      <c r="B22" s="2">
-        <v>15</v>
-      </c>
-      <c r="C22" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>43919</v>
-      </c>
-      <c r="B23" s="2">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>43920</v>
-      </c>
-      <c r="B24" s="2">
-        <v>19</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>43921</v>
-      </c>
-      <c r="B25" s="2">
-        <v>25</v>
-      </c>
-      <c r="C25" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>43922</v>
-      </c>
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>43923</v>
-      </c>
-      <c r="B27" s="2">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>43924</v>
-      </c>
-      <c r="B28" s="2">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>43925</v>
-      </c>
-      <c r="B29" s="2">
-        <v>30</v>
-      </c>
-      <c r="C29" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>43926</v>
-      </c>
-      <c r="B30" s="2">
-        <v>33</v>
-      </c>
-      <c r="C30" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>43927</v>
-      </c>
-      <c r="B31" s="2">
-        <v>33</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>43928</v>
-      </c>
-      <c r="B32" s="2">
-        <v>33</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>43929</v>
-      </c>
-      <c r="B33" s="2">
-        <v>33</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>43930</v>
-      </c>
-      <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>43931</v>
-      </c>
-      <c r="B35" s="2">
-        <v>33</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>43932</v>
-      </c>
-      <c r="B36" s="2">
-        <f>SUM(B35+C36)</f>
-        <v>36</v>
-      </c>
-      <c r="C36" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>43933</v>
-      </c>
-      <c r="B37" s="2">
-        <f>SUM(B36+C37)</f>
-        <v>36</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C28"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B37" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B38" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -841,6 +841,18 @@
       </c>
       <c r="C37" s="2">
         <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>43934</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>803</v>
+      </c>
+      <c r="C38" s="2">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -856,10 +868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,6 +1290,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>43934</v>
+      </c>
+      <c r="B38" s="2">
+        <f>SUM(B37+C38)</f>
+        <v>42</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1287,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,7 +1659,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B37" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B38" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -1712,6 +1736,18 @@
       </c>
       <c r="C37" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>43934</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B38" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B39" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -853,6 +853,18 @@
       </c>
       <c r="C38" s="2">
         <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>43935</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
+        <v>1012</v>
+      </c>
+      <c r="C39" s="2">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -868,10 +880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,6 +1314,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>43935</v>
+      </c>
+      <c r="B39" s="2">
+        <f>SUM(B38+C39)</f>
+        <v>42</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1311,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,7 +1683,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B38" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B39" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -1748,6 +1772,18 @@
       </c>
       <c r="C38" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>43935</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C39" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B39" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B40" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -865,6 +865,18 @@
       </c>
       <c r="C39" s="2">
         <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>43936</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="0"/>
+        <v>1231</v>
+      </c>
+      <c r="C40" s="2">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +892,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
@@ -1326,6 +1338,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>43936</v>
+      </c>
+      <c r="B40" s="2">
+        <f>SUM(B39+C40)</f>
+        <v>49</v>
+      </c>
+      <c r="C40" s="2">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1335,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,7 +1707,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B39" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B40" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -1784,6 +1808,18 @@
       </c>
       <c r="C39" s="2">
         <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>43936</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B40" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B41" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -877,6 +877,18 @@
       </c>
       <c r="C40" s="2">
         <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>43937</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="0"/>
+        <v>1572</v>
+      </c>
+      <c r="C41" s="2">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -892,10 +904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,6 +1362,18 @@
         <v>7</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>43937</v>
+      </c>
+      <c r="B41" s="2">
+        <f>SUM(B40+C41)</f>
+        <v>49</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1359,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1731,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B40" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B41" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -1820,6 +1844,18 @@
       </c>
       <c r="C40" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>43937</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B41" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B42" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -889,6 +889,18 @@
       </c>
       <c r="C41" s="2">
         <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>43938</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="0"/>
+        <v>1838</v>
+      </c>
+      <c r="C42" s="2">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1319,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f>SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B42" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1319,7 +1331,7 @@
         <v>43933</v>
       </c>
       <c r="B37" s="2">
-        <f>SUM(B36+C37)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C37" s="2">
@@ -1331,7 +1343,7 @@
         <v>43934</v>
       </c>
       <c r="B38" s="2">
-        <f>SUM(B37+C38)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C38" s="2">
@@ -1343,7 +1355,7 @@
         <v>43935</v>
       </c>
       <c r="B39" s="2">
-        <f>SUM(B38+C39)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C39" s="2">
@@ -1355,7 +1367,7 @@
         <v>43936</v>
       </c>
       <c r="B40" s="2">
-        <f>SUM(B39+C40)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C40" s="2">
@@ -1367,11 +1379,23 @@
         <v>43937</v>
       </c>
       <c r="B41" s="2">
-        <f>SUM(B40+C41)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>43938</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1383,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:B41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,7 +1755,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B41" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B42" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -1856,6 +1880,18 @@
       </c>
       <c r="C41" s="2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>43938</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C42" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B42" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B43" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -901,6 +901,18 @@
       </c>
       <c r="C42" s="2">
         <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>43939</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="0"/>
+        <v>2144</v>
+      </c>
+      <c r="C43" s="2">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -916,10 +928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,7 +1331,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B42" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B43" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1396,6 +1408,18 @@
       </c>
       <c r="C42" s="2">
         <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>43939</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C43" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1407,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:B52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,7 +1779,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B42" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B43" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -1892,6 +1916,18 @@
       </c>
       <c r="C42" s="2">
         <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>43939</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C43" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B43" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B44" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -913,6 +913,18 @@
       </c>
       <c r="C43" s="2">
         <v>306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43940</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="0"/>
+        <v>2456</v>
+      </c>
+      <c r="C44" s="2">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -928,10 +940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B43"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1343,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B43" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B44" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1420,6 +1432,18 @@
       </c>
       <c r="C43" s="2">
         <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43940</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C44" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1431,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B43"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1779,7 +1803,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B43" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B44" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -1928,6 +1952,18 @@
       </c>
       <c r="C43" s="2">
         <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43940</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="C44" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B44" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B45" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -925,6 +925,18 @@
       </c>
       <c r="C44" s="2">
         <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="0"/>
+        <v>2948</v>
+      </c>
+      <c r="C45" s="2">
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -940,10 +952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="B44" sqref="B44:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,7 +1355,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B44" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B45" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1444,6 +1456,18 @@
       </c>
       <c r="C44" s="2">
         <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1455,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,7 +1827,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B44" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B45" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -1964,6 +1988,18 @@
       </c>
       <c r="C44" s="2">
         <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B45" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B46" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -937,6 +937,18 @@
       </c>
       <c r="C45" s="2">
         <v>492</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="0"/>
+        <v>3382</v>
+      </c>
+      <c r="C46" s="2">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -952,10 +964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B45"/>
+      <selection activeCell="B45" sqref="B45:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1367,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B45" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B46" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1468,6 +1480,18 @@
       </c>
       <c r="C45" s="2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1479,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,7 +1851,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B45" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B46" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2000,6 +2024,18 @@
       </c>
       <c r="C45" s="2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C46" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B46" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B47" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -949,6 +949,18 @@
       </c>
       <c r="C46" s="2">
         <v>434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>43943</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="0"/>
+        <v>3872</v>
+      </c>
+      <c r="C47" s="2">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -964,10 +976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:B46"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1379,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B46" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B47" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1492,6 +1504,18 @@
       </c>
       <c r="C46" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>43943</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1503,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,7 +1875,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B46" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B47" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2036,6 +2060,18 @@
       </c>
       <c r="C46" s="2">
         <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>43943</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,10 +957,10 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" si="0"/>
-        <v>3872</v>
+        <v>3772</v>
       </c>
       <c r="C47" s="2">
-        <v>490</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -1529,7 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B47" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B48" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -961,6 +961,18 @@
       </c>
       <c r="C47" s="2">
         <v>390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43944</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="0"/>
+        <v>4186</v>
+      </c>
+      <c r="C48" s="2">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -976,10 +988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1391,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B47" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B48" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1516,6 +1528,18 @@
       </c>
       <c r="C47" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43944</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="C48" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1527,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,7 +1899,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B47" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B48" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2072,6 +2096,18 @@
       </c>
       <c r="C47" s="2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43944</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="C48" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B48" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B49" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -973,6 +973,18 @@
       </c>
       <c r="C48" s="2">
         <v>414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>43945</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="0"/>
+        <v>4689</v>
+      </c>
+      <c r="C49" s="2">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -988,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,7 +1403,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B48" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B49" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1540,6 +1552,18 @@
       </c>
       <c r="C48" s="2">
         <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>43945</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1551,9 +1575,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -1899,7 +1923,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B48" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B49" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2108,6 +2132,18 @@
       </c>
       <c r="C48" s="2">
         <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>43945</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B49" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B51" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -985,6 +985,30 @@
       </c>
       <c r="C49" s="2">
         <v>503</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>43946</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
+        <v>4998</v>
+      </c>
+      <c r="C50" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
+        <v>5416</v>
+      </c>
+      <c r="C51" s="2">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -1000,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1427,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B49" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B51" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1564,6 +1588,30 @@
       </c>
       <c r="C49" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>43946</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="C51" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1575,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,7 +1971,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B49" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B51" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2144,6 +2192,30 @@
       </c>
       <c r="C49" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>43946</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C50" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:B51"/>
+      <selection activeCell="B50" sqref="B50:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:B51"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B51" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B52" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1009,6 +1009,18 @@
       </c>
       <c r="C51" s="2">
         <v>418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>43948</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
+        <v>5913</v>
+      </c>
+      <c r="C52" s="2">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -1024,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:B51"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1439,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B51" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B52" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1611,6 +1623,18 @@
         <v>122</v>
       </c>
       <c r="C51" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>43948</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="C52" s="2">
         <v>9</v>
       </c>
     </row>
@@ -1623,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:B51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,7 +1995,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B51" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B52" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2216,6 +2240,18 @@
       </c>
       <c r="C51" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>43948</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="C52" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B52" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B53" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1021,6 +1021,18 @@
       </c>
       <c r="C52" s="2">
         <v>497</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>43949</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
+        <v>6462</v>
+      </c>
+      <c r="C53" s="2">
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -1036,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1451,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B52" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B53" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1636,6 +1648,18 @@
       </c>
       <c r="C52" s="2">
         <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>43949</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="C53" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1647,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,7 +2019,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B52" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B53" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2252,6 +2276,18 @@
       </c>
       <c r="C52" s="2">
         <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>43949</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B54" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B55" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1045,6 +1045,18 @@
       </c>
       <c r="C54" s="2">
         <v>641</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>43951</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
+        <v>7667</v>
+      </c>
+      <c r="C55" s="2">
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -1060,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1475,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B54" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B55" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1684,6 +1696,18 @@
       </c>
       <c r="C54" s="2">
         <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>43951</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="C55" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1695,10 +1719,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2043,7 +2067,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B54" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B55" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2324,6 +2348,18 @@
       </c>
       <c r="C54" s="2">
         <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>43951</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B55" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B56" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1057,6 +1057,18 @@
       </c>
       <c r="C55" s="2">
         <v>564</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>43952</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
+        <v>8238</v>
+      </c>
+      <c r="C56" s="2">
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -1072,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:B55"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1487,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B55" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B56" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1708,6 +1720,18 @@
       </c>
       <c r="C55" s="2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>43952</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="C56" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1719,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,7 +2091,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B55" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B56" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2360,6 +2384,18 @@
       </c>
       <c r="C55" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>43952</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B56" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B57" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1069,6 +1069,18 @@
       </c>
       <c r="C56" s="2">
         <v>571</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>43953</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
+        <v>8790</v>
+      </c>
+      <c r="C57" s="2">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -1084,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="B56" sqref="B56:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,7 +1499,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B56" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B57" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1732,6 +1744,18 @@
       </c>
       <c r="C56" s="2">
         <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>43953</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1743,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2115,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B56" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B57" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2396,6 +2420,18 @@
       </c>
       <c r="C56" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>43953</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:B57"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B57" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B58" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1081,6 +1081,18 @@
       </c>
       <c r="C57" s="2">
         <v>552</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>43954</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
+        <v>9455</v>
+      </c>
+      <c r="C58" s="2">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -1096,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:B57"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1511,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B57" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B58" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1756,6 +1768,18 @@
       </c>
       <c r="C57" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>43954</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1767,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:B57"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,7 +2139,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B57" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B58" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2432,6 +2456,18 @@
       </c>
       <c r="C57" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>43954</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:B58"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B58" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B59" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1093,6 +1093,18 @@
       </c>
       <c r="C58" s="2">
         <v>665</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>43955</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="0"/>
+        <v>10143</v>
+      </c>
+      <c r="C59" s="2">
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -1108,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:B58"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,7 +1523,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B58" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B59" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1776,10 +1788,22 @@
       </c>
       <c r="B58" s="2">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>1063</v>
       </c>
       <c r="C58" s="2">
-        <v>0</v>
+        <v>886</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>43955</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="0"/>
+        <v>1210</v>
+      </c>
+      <c r="C59" s="2">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1791,10 +1815,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,7 +2163,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B58" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B59" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2468,6 +2492,18 @@
       </c>
       <c r="C58" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>43955</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B59" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B60" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1105,6 +1105,18 @@
       </c>
       <c r="C59" s="2">
         <v>688</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>43956</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="0"/>
+        <v>10929</v>
+      </c>
+      <c r="C60" s="2">
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -1120,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+      <selection activeCell="B59" sqref="B59:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,7 +1535,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B59" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B60" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1804,6 +1816,18 @@
       </c>
       <c r="C59" s="2">
         <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>43956</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="0"/>
+        <v>1403</v>
+      </c>
+      <c r="C60" s="2">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1815,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,7 +2187,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B59" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B60" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2504,6 +2528,18 @@
       </c>
       <c r="C59" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>43956</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B60" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B61" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1117,6 +1117,18 @@
       </c>
       <c r="C60" s="2">
         <v>786</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>43957</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="0"/>
+        <v>11719</v>
+      </c>
+      <c r="C61" s="2">
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -1132,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:B60"/>
+      <selection activeCell="B60" sqref="B60:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,7 +1547,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B60" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B61" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1828,6 +1840,18 @@
       </c>
       <c r="C60" s="2">
         <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>43957</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="0"/>
+        <v>1403</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1839,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:B60"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,7 +2211,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B60" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B61" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2540,6 +2564,18 @@
       </c>
       <c r="C60" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>43957</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="B61" sqref="B61:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B61" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B62" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1129,6 +1129,18 @@
       </c>
       <c r="C61" s="2">
         <v>790</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>43958</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="0"/>
+        <v>12425</v>
+      </c>
+      <c r="C62" s="2">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -1144,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:B61"/>
+      <selection activeCell="B61" sqref="B61:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1559,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B61" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B62" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1852,6 +1864,18 @@
       </c>
       <c r="C61" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>43958</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="0"/>
+        <v>1533</v>
+      </c>
+      <c r="C62" s="2">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1863,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="B61" sqref="B61:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,7 +2235,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B61" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B62" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2576,6 +2600,18 @@
       </c>
       <c r="C61" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>43958</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="C62" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:B62"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B62" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B63" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1141,6 +1141,18 @@
       </c>
       <c r="C62" s="2">
         <v>706</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>43959</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="0"/>
+        <v>13134</v>
+      </c>
+      <c r="C63" s="2">
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -1156,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:B62"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,7 +1571,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B62" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B63" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1860,10 +1872,10 @@
       </c>
       <c r="B61" s="2">
         <f t="shared" si="0"/>
-        <v>1403</v>
+        <v>1780</v>
       </c>
       <c r="C61" s="2">
-        <v>0</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1872,10 +1884,22 @@
       </c>
       <c r="B62" s="2">
         <f t="shared" si="0"/>
-        <v>1533</v>
+        <v>1910</v>
       </c>
       <c r="C62" s="2">
         <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>43959</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="0"/>
+        <v>2101</v>
+      </c>
+      <c r="C63" s="2">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1887,10 +1911,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:B62"/>
+      <selection activeCell="B62" sqref="B62:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,7 +2259,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B62" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B63" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2612,6 +2636,18 @@
       </c>
       <c r="C62" s="2">
         <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>43959</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="C63" s="2">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="B63" sqref="B63:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B63" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B64" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1153,6 +1153,18 @@
       </c>
       <c r="C63" s="2">
         <v>709</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>43960</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="0"/>
+        <v>13770</v>
+      </c>
+      <c r="C64" s="2">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -1168,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1583,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B63" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B64" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1900,6 +1912,18 @@
       </c>
       <c r="C63" s="2">
         <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>43960</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="0"/>
+        <v>2414</v>
+      </c>
+      <c r="C64" s="2">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -1911,10 +1935,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:B63"/>
+      <selection activeCell="B63" sqref="B63:B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,7 +2283,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B63" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B64" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2648,6 +2672,18 @@
       </c>
       <c r="C63" s="2">
         <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>43960</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="C64" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:B64"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B64" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B65" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1165,6 +1165,18 @@
       </c>
       <c r="C64" s="2">
         <v>636</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>43961</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="0"/>
+        <v>14657</v>
+      </c>
+      <c r="C65" s="2">
+        <v>887</v>
       </c>
     </row>
   </sheetData>
@@ -1180,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1595,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B64" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B65" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1924,6 +1936,18 @@
       </c>
       <c r="C64" s="2">
         <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>43961</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="0"/>
+        <v>2650</v>
+      </c>
+      <c r="C65" s="2">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1935,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:B64"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,7 +2307,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B64" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B65" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2684,6 +2708,18 @@
       </c>
       <c r="C64" s="2">
         <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>43961</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="C65" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:B65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B65" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B66" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1177,6 +1177,18 @@
       </c>
       <c r="C65" s="2">
         <v>887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>43962</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="0"/>
+        <v>15691</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -1192,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:B65"/>
+      <selection activeCell="B65" sqref="B65:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,7 +1607,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B65" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B66" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1948,6 +1960,18 @@
       </c>
       <c r="C65" s="2">
         <v>236</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>43962</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="0"/>
+        <v>2902</v>
+      </c>
+      <c r="C66" s="2">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -1959,10 +1983,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2307,7 +2331,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B65" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B66" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2720,6 +2744,18 @@
       </c>
       <c r="C65" s="2">
         <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>43962</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="C66" s="2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:B66"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B66" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B67" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1189,6 +1189,18 @@
       </c>
       <c r="C66" s="2">
         <v>1034</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>43963</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="0"/>
+        <v>16660</v>
+      </c>
+      <c r="C67" s="2">
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -1204,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:B66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,7 +1619,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B66" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B67" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1972,6 +1984,18 @@
       </c>
       <c r="C66" s="2">
         <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>43963</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="0"/>
+        <v>3147</v>
+      </c>
+      <c r="C67" s="2">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1983,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:B66"/>
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,7 +2355,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B66" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B67" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2755,6 +2779,18 @@
         <v>239</v>
       </c>
       <c r="C66" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>43963</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="C67" s="2">
         <v>11</v>
       </c>
     </row>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:B67"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B67" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B68" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1201,6 +1201,18 @@
       </c>
       <c r="C67" s="2">
         <v>969</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>43964</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="0"/>
+        <v>17822</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1162</v>
       </c>
     </row>
   </sheetData>
@@ -1216,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:B67"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,7 +1631,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B67" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B68" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -1996,6 +2008,18 @@
       </c>
       <c r="C67" s="2">
         <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>43964</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="0"/>
+        <v>3361</v>
+      </c>
+      <c r="C68" s="2">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2007,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,7 +2379,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B67" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B68" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2792,6 +2816,18 @@
       </c>
       <c r="C67" s="2">
         <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>43964</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="C68" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B68" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B69" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1213,6 +1213,18 @@
       </c>
       <c r="C68" s="2">
         <v>1162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>43965</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="0"/>
+        <v>18863</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
@@ -1228,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,7 +1643,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B68" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B69" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2020,6 +2032,18 @@
       </c>
       <c r="C68" s="2">
         <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>43965</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="0"/>
+        <v>3603</v>
+      </c>
+      <c r="C69" s="2">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -2031,10 +2055,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="B68" sqref="B68:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,7 +2403,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B68" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B69" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2828,6 +2852,18 @@
       </c>
       <c r="C68" s="2">
         <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>43965</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+      <c r="C69" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
@@ -1242,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:B69"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,10 +2040,10 @@
       </c>
       <c r="B69" s="2">
         <f t="shared" si="0"/>
-        <v>3603</v>
+        <v>3361</v>
       </c>
       <c r="C69" s="2">
-        <v>242</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B69" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B70" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1225,6 +1225,18 @@
       </c>
       <c r="C69" s="2">
         <v>1041</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>43966</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="0"/>
+        <v>20065</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1202</v>
       </c>
     </row>
   </sheetData>
@@ -1240,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,7 +1655,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B69" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B70" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2040,10 +2052,22 @@
       </c>
       <c r="B69" s="2">
         <f t="shared" si="0"/>
-        <v>3361</v>
+        <v>3603</v>
       </c>
       <c r="C69" s="2">
-        <v>0</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>43966</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="0"/>
+        <v>3882</v>
+      </c>
+      <c r="C70" s="2">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2055,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:B69"/>
+      <selection activeCell="B69" sqref="B69:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2403,7 +2427,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B69" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B70" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2864,6 +2888,18 @@
       </c>
       <c r="C69" s="2">
         <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>43966</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="C70" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:B70"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B70" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B71" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1237,6 +1237,18 @@
       </c>
       <c r="C70" s="2">
         <v>1202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>43967</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="0"/>
+        <v>20995</v>
+      </c>
+      <c r="C71" s="2">
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -1252,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+      <selection activeCell="B70" sqref="B70:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,7 +1667,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B70" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B71" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2068,6 +2080,18 @@
       </c>
       <c r="C70" s="2">
         <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>43967</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="0"/>
+        <v>4117</v>
+      </c>
+      <c r="C71" s="2">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2079,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:B70"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2427,7 +2451,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B70" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B71" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2900,6 +2924,18 @@
       </c>
       <c r="C70" s="2">
         <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>43967</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="0"/>
+        <v>314</v>
+      </c>
+      <c r="C71" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B71" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B72" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1249,6 +1249,18 @@
       </c>
       <c r="C71" s="2">
         <v>930</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>43968</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="0"/>
+        <v>22268</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1273</v>
       </c>
     </row>
   </sheetData>
@@ -1264,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:B71"/>
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,7 +1679,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B71" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B72" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2092,6 +2104,18 @@
       </c>
       <c r="C71" s="2">
         <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>43968</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="0"/>
+        <v>4373</v>
+      </c>
+      <c r="C72" s="2">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2103,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,7 +2475,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B71" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B72" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2936,6 +2960,18 @@
       </c>
       <c r="C71" s="2">
         <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>43968</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="0"/>
+        <v>328</v>
+      </c>
+      <c r="C72" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B72" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B73" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1261,6 +1261,18 @@
       </c>
       <c r="C72" s="2">
         <v>1273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>43969</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="0"/>
+        <v>23870</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1602</v>
       </c>
     </row>
   </sheetData>
@@ -1276,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,7 +1691,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B72" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B73" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2116,6 +2128,18 @@
       </c>
       <c r="C72" s="2">
         <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>43969</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="0"/>
+        <v>4585</v>
+      </c>
+      <c r="C73" s="2">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2127,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2475,7 +2499,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B72" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B73" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -2972,6 +2996,18 @@
       </c>
       <c r="C72" s="2">
         <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>43969</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="0"/>
+        <v>349</v>
+      </c>
+      <c r="C73" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:B73"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B73" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B74" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1273,6 +1273,18 @@
       </c>
       <c r="C73" s="2">
         <v>1602</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>43970</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="0"/>
+        <v>25121</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1251</v>
       </c>
     </row>
   </sheetData>
@@ -1288,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:B73"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,7 +1703,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B73" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B74" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2140,6 +2152,18 @@
       </c>
       <c r="C73" s="2">
         <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>43970</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="0"/>
+        <v>4993</v>
+      </c>
+      <c r="C74" s="2">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -2151,10 +2175,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:B73"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,7 +2523,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B73" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B74" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3007,6 +3031,18 @@
         <v>349</v>
       </c>
       <c r="C73" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>43970</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="C74" s="2">
         <v>21</v>
       </c>
     </row>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+      <selection activeCell="B74" sqref="B74:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B74" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B75" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1285,6 +1285,18 @@
       </c>
       <c r="C74" s="2">
         <v>1251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>43971</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="0"/>
+        <v>26738</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1617</v>
       </c>
     </row>
   </sheetData>
@@ -1300,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73:B74"/>
+      <selection activeCell="B74" sqref="B74:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1715,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B74" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B75" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2164,6 +2176,18 @@
       </c>
       <c r="C74" s="2">
         <v>408</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>43971</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="0"/>
+        <v>5207</v>
+      </c>
+      <c r="C75" s="2">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2175,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73:B74"/>
+      <selection activeCell="B74" sqref="B74:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2523,7 +2547,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B74" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B75" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3044,6 +3068,18 @@
       </c>
       <c r="C74" s="2">
         <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>43971</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="0"/>
+        <v>386</v>
+      </c>
+      <c r="C75" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:B75"/>
+      <selection activeCell="B75" sqref="B75:B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B75" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B76" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1297,6 +1297,18 @@
       </c>
       <c r="C75" s="2">
         <v>1617</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>43972</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="0"/>
+        <v>28511</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1773</v>
       </c>
     </row>
   </sheetData>
@@ -1312,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:B75"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,6 +2202,11 @@
         <v>214</v>
       </c>
     </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>43972</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2199,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74:B75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,7 +2564,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B75" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B76" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3080,6 +3097,18 @@
       </c>
       <c r="C75" s="2">
         <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>43972</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
+      <c r="C76" s="2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:B76"/>
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:A76"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,7 +1727,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B75" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B76" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2205,6 +2205,13 @@
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>43972</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="0"/>
+        <v>5602</v>
+      </c>
+      <c r="C76" s="2">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -2218,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:B76"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B76" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B77" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1309,6 +1309,18 @@
       </c>
       <c r="C76" s="2">
         <v>1773</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>43973</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="0"/>
+        <v>30205</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1694</v>
       </c>
     </row>
   </sheetData>
@@ -1324,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,7 +1739,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B76" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B77" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2212,6 +2224,18 @@
       </c>
       <c r="C76" s="2">
         <v>395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>43973</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="0"/>
+        <v>6190</v>
+      </c>
+      <c r="C77" s="2">
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -2223,10 +2247,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,7 +2595,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B76" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B77" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3116,6 +3140,18 @@
       </c>
       <c r="C76" s="2">
         <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>43973</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="C77" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="C83" sqref="C83"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B77" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B78" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1321,6 +1321,18 @@
       </c>
       <c r="C77" s="2">
         <v>1694</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>43974</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="0"/>
+        <v>32078</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1873</v>
       </c>
     </row>
   </sheetData>
@@ -1336,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,6 +2250,11 @@
         <v>588</v>
       </c>
     </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>43974</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2247,10 +2264,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76:B77"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,7 +2612,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B77" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B78" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3152,6 +3169,18 @@
       </c>
       <c r="C77" s="2">
         <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>43974</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="0"/>
+        <v>452</v>
+      </c>
+      <c r="C78" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,7 +1751,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B77" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B78" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2253,6 +2253,13 @@
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>43974</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="0"/>
+        <v>6486</v>
+      </c>
+      <c r="C78" s="2">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2266,7 +2273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B78" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B79" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1333,6 +1333,18 @@
       </c>
       <c r="C78" s="2">
         <v>1873</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>43975</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="0"/>
+        <v>33610</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1532</v>
       </c>
     </row>
   </sheetData>
@@ -1348,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77:B78"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,7 +1763,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B78" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B79" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2260,6 +2272,18 @@
       </c>
       <c r="C78" s="2">
         <v>296</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>43975</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="0"/>
+        <v>6901</v>
+      </c>
+      <c r="C79" s="2">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -2271,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2619,7 +2643,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B78" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B79" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3188,6 +3212,18 @@
       </c>
       <c r="C78" s="2">
         <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>43975</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="C79" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78:B79"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B79" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B80" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1345,6 +1345,18 @@
       </c>
       <c r="C79" s="2">
         <v>1532</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>43976</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="0"/>
+        <v>35585</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1975</v>
       </c>
     </row>
   </sheetData>
@@ -1360,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,7 +1775,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B79" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B80" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2284,6 +2296,18 @@
       </c>
       <c r="C79" s="2">
         <v>415</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>43976</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="0"/>
+        <v>7334</v>
+      </c>
+      <c r="C80" s="2">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -2295,10 +2319,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2643,7 +2667,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B79" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B80" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3224,6 +3248,18 @@
       </c>
       <c r="C79" s="2">
         <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>43976</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="0"/>
+        <v>501</v>
+      </c>
+      <c r="C80" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="B80" sqref="B80:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B80" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B81" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1357,6 +1357,18 @@
       </c>
       <c r="C80" s="2">
         <v>1975</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>43977</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="0"/>
+        <v>36751</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1166</v>
       </c>
     </row>
   </sheetData>
@@ -1372,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+      <selection activeCell="B80" sqref="B80:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,7 +1787,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B80" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B81" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2308,6 +2320,18 @@
       </c>
       <c r="C80" s="2">
         <v>433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>43977</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="0"/>
+        <v>7579</v>
+      </c>
+      <c r="C81" s="2">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2319,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79:B80"/>
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2667,7 +2691,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B80" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B81" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3259,6 +3283,18 @@
         <v>501</v>
       </c>
       <c r="C80" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>43977</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="0"/>
+        <v>522</v>
+      </c>
+      <c r="C81" s="2">
         <v>21</v>
       </c>
     </row>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:B81"/>
+      <selection activeCell="B81" sqref="B81:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B81" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B82" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1369,6 +1369,18 @@
       </c>
       <c r="C81" s="2">
         <v>1166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>43978</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="0"/>
+        <v>38292</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1541</v>
       </c>
     </row>
   </sheetData>
@@ -1384,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80:B81"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,7 +1799,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B81" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B82" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2332,6 +2344,18 @@
       </c>
       <c r="C81" s="2">
         <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>43978</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="0"/>
+        <v>7925</v>
+      </c>
+      <c r="C82" s="2">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -2343,10 +2367,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2691,7 +2715,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B81" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B82" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3296,6 +3320,18 @@
       </c>
       <c r="C81" s="2">
         <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>43978</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="0"/>
+        <v>544</v>
+      </c>
+      <c r="C82" s="2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81:B82"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B82" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B83" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1381,6 +1381,18 @@
       </c>
       <c r="C82" s="2">
         <v>1541</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>43979</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" si="0"/>
+        <v>40321</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2029</v>
       </c>
     </row>
   </sheetData>
@@ -1396,978 +1408,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43898</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43899</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43900</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43901</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43902</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43903</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43904</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43905</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43906</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43907</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43908</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43909</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43910</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43911</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43912</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>43913</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43914</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>43915</v>
-      </c>
-      <c r="B19" s="2">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>43916</v>
-      </c>
-      <c r="B20" s="2">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>43917</v>
-      </c>
-      <c r="B21" s="2">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>43918</v>
-      </c>
-      <c r="B22" s="2">
-        <v>15</v>
-      </c>
-      <c r="C22" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>43919</v>
-      </c>
-      <c r="B23" s="2">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>43920</v>
-      </c>
-      <c r="B24" s="2">
-        <v>19</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>43921</v>
-      </c>
-      <c r="B25" s="2">
-        <v>25</v>
-      </c>
-      <c r="C25" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>43922</v>
-      </c>
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>43923</v>
-      </c>
-      <c r="B27" s="2">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>43924</v>
-      </c>
-      <c r="B28" s="2">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>43925</v>
-      </c>
-      <c r="B29" s="2">
-        <v>30</v>
-      </c>
-      <c r="C29" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>43926</v>
-      </c>
-      <c r="B30" s="2">
-        <v>33</v>
-      </c>
-      <c r="C30" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>43927</v>
-      </c>
-      <c r="B31" s="2">
-        <v>33</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>43928</v>
-      </c>
-      <c r="B32" s="2">
-        <v>33</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>43929</v>
-      </c>
-      <c r="B33" s="2">
-        <v>33</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>43930</v>
-      </c>
-      <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>43931</v>
-      </c>
-      <c r="B35" s="2">
-        <v>33</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>43932</v>
-      </c>
-      <c r="B36" s="2">
-        <f t="shared" ref="B36:B82" si="0">SUM(B35+C36)</f>
-        <v>36</v>
-      </c>
-      <c r="C36" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>43933</v>
-      </c>
-      <c r="B37" s="2">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C37" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>43934</v>
-      </c>
-      <c r="B38" s="2">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C38" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>43935</v>
-      </c>
-      <c r="B39" s="2">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>43936</v>
-      </c>
-      <c r="B40" s="2">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="C40" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>43937</v>
-      </c>
-      <c r="B41" s="2">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>43938</v>
-      </c>
-      <c r="B42" s="2">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="C42" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>43939</v>
-      </c>
-      <c r="B43" s="2">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="C43" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>43940</v>
-      </c>
-      <c r="B44" s="2">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="C44" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>43941</v>
-      </c>
-      <c r="B45" s="2">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="C45" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>43942</v>
-      </c>
-      <c r="B46" s="2">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="C46" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>43943</v>
-      </c>
-      <c r="B47" s="2">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="C47" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>43944</v>
-      </c>
-      <c r="B48" s="2">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="C48" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>43945</v>
-      </c>
-      <c r="B49" s="2">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="C49" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>43946</v>
-      </c>
-      <c r="B50" s="2">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>43947</v>
-      </c>
-      <c r="B51" s="2">
-        <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="C51" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>43948</v>
-      </c>
-      <c r="B52" s="2">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="C52" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>43949</v>
-      </c>
-      <c r="B53" s="2">
-        <f t="shared" si="0"/>
-        <v>139</v>
-      </c>
-      <c r="C53" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>43950</v>
-      </c>
-      <c r="B54" s="2">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="C54" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>43951</v>
-      </c>
-      <c r="B55" s="2">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="C55" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>43952</v>
-      </c>
-      <c r="B56" s="2">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="C56" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B57" s="2">
-        <f t="shared" si="0"/>
-        <v>177</v>
-      </c>
-      <c r="C57" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>43954</v>
-      </c>
-      <c r="B58" s="2">
-        <f t="shared" si="0"/>
-        <v>1063</v>
-      </c>
-      <c r="C58" s="2">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>43955</v>
-      </c>
-      <c r="B59" s="2">
-        <f t="shared" si="0"/>
-        <v>1210</v>
-      </c>
-      <c r="C59" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>43956</v>
-      </c>
-      <c r="B60" s="2">
-        <f t="shared" si="0"/>
-        <v>1403</v>
-      </c>
-      <c r="C60" s="2">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>43957</v>
-      </c>
-      <c r="B61" s="2">
-        <f t="shared" si="0"/>
-        <v>1780</v>
-      </c>
-      <c r="C61" s="2">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>43958</v>
-      </c>
-      <c r="B62" s="2">
-        <f t="shared" si="0"/>
-        <v>1910</v>
-      </c>
-      <c r="C62" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B63" s="2">
-        <f t="shared" si="0"/>
-        <v>2101</v>
-      </c>
-      <c r="C63" s="2">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>43960</v>
-      </c>
-      <c r="B64" s="2">
-        <f t="shared" si="0"/>
-        <v>2414</v>
-      </c>
-      <c r="C64" s="2">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>43961</v>
-      </c>
-      <c r="B65" s="2">
-        <f t="shared" si="0"/>
-        <v>2650</v>
-      </c>
-      <c r="C65" s="2">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>43962</v>
-      </c>
-      <c r="B66" s="2">
-        <f t="shared" si="0"/>
-        <v>2902</v>
-      </c>
-      <c r="C66" s="2">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>43963</v>
-      </c>
-      <c r="B67" s="2">
-        <f t="shared" si="0"/>
-        <v>3147</v>
-      </c>
-      <c r="C67" s="2">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <v>43964</v>
-      </c>
-      <c r="B68" s="2">
-        <f t="shared" si="0"/>
-        <v>3361</v>
-      </c>
-      <c r="C68" s="2">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <v>43965</v>
-      </c>
-      <c r="B69" s="2">
-        <f t="shared" si="0"/>
-        <v>3603</v>
-      </c>
-      <c r="C69" s="2">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B70" s="2">
-        <f t="shared" si="0"/>
-        <v>3882</v>
-      </c>
-      <c r="C70" s="2">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>43967</v>
-      </c>
-      <c r="B71" s="2">
-        <f t="shared" si="0"/>
-        <v>4117</v>
-      </c>
-      <c r="C71" s="2">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>43968</v>
-      </c>
-      <c r="B72" s="2">
-        <f t="shared" si="0"/>
-        <v>4373</v>
-      </c>
-      <c r="C72" s="2">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>43969</v>
-      </c>
-      <c r="B73" s="2">
-        <f t="shared" si="0"/>
-        <v>4585</v>
-      </c>
-      <c r="C73" s="2">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>43970</v>
-      </c>
-      <c r="B74" s="2">
-        <f t="shared" si="0"/>
-        <v>4993</v>
-      </c>
-      <c r="C74" s="2">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <v>43971</v>
-      </c>
-      <c r="B75" s="2">
-        <f t="shared" si="0"/>
-        <v>5207</v>
-      </c>
-      <c r="C75" s="2">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
-        <v>43972</v>
-      </c>
-      <c r="B76" s="2">
-        <f t="shared" si="0"/>
-        <v>5602</v>
-      </c>
-      <c r="C76" s="2">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
-        <v>43973</v>
-      </c>
-      <c r="B77" s="2">
-        <f t="shared" si="0"/>
-        <v>6190</v>
-      </c>
-      <c r="C77" s="2">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
-        <v>43974</v>
-      </c>
-      <c r="B78" s="2">
-        <f t="shared" si="0"/>
-        <v>6486</v>
-      </c>
-      <c r="C78" s="2">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
-        <v>43975</v>
-      </c>
-      <c r="B79" s="2">
-        <f t="shared" si="0"/>
-        <v>6901</v>
-      </c>
-      <c r="C79" s="2">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>43976</v>
-      </c>
-      <c r="B80" s="2">
-        <f t="shared" si="0"/>
-        <v>7334</v>
-      </c>
-      <c r="C80" s="2">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
-        <v>43977</v>
-      </c>
-      <c r="B81" s="2">
-        <f t="shared" si="0"/>
-        <v>7579</v>
-      </c>
-      <c r="C81" s="2">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
-        <v>43978</v>
-      </c>
-      <c r="B82" s="2">
-        <f t="shared" si="0"/>
-        <v>7925</v>
-      </c>
-      <c r="C82" s="2">
-        <v>346</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C28"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
@@ -2385,17 +1426,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43898</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2">
@@ -2406,7 +1447,7 @@
       <c r="A3" s="4">
         <v>43899</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2">
@@ -2417,7 +1458,7 @@
       <c r="A4" s="4">
         <v>43900</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="2">
@@ -2428,7 +1469,7 @@
       <c r="A5" s="4">
         <v>43901</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" s="2">
@@ -2439,7 +1480,7 @@
       <c r="A6" s="4">
         <v>43902</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2">
@@ -2450,7 +1491,7 @@
       <c r="A7" s="4">
         <v>43903</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2">
@@ -2461,7 +1502,7 @@
       <c r="A8" s="4">
         <v>43904</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
       <c r="C8" s="2">
@@ -2472,7 +1513,7 @@
       <c r="A9" s="4">
         <v>43905</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>0</v>
       </c>
       <c r="C9" s="2">
@@ -2483,41 +1524,41 @@
       <c r="A10" s="4">
         <v>43906</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
+      <c r="B10" s="2">
+        <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43907</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
+      <c r="B11" s="2">
+        <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43908</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
+      <c r="B12" s="2">
+        <v>3</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43909</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
+      <c r="B13" s="2">
+        <v>3</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -2527,8 +1568,8 @@
       <c r="A14" s="4">
         <v>43910</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
+      <c r="B14" s="2">
+        <v>3</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -2538,19 +1579,19 @@
       <c r="A15" s="4">
         <v>43911</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
+      <c r="B15" s="2">
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43912</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
+      <c r="B16" s="2">
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -2560,52 +1601,52 @@
       <c r="A17" s="4">
         <v>43913</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43914</v>
       </c>
-      <c r="B18" s="1">
-        <v>4</v>
+      <c r="B18" s="2">
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43915</v>
       </c>
-      <c r="B19" s="1">
-        <v>5</v>
+      <c r="B19" s="2">
+        <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43916</v>
       </c>
-      <c r="B20" s="1">
-        <v>5</v>
+      <c r="B20" s="2">
+        <v>11</v>
       </c>
       <c r="C20" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43917</v>
       </c>
-      <c r="B21" s="1">
-        <v>5</v>
+      <c r="B21" s="2">
+        <v>11</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -2615,19 +1656,19 @@
       <c r="A22" s="4">
         <v>43918</v>
       </c>
-      <c r="B22" s="1">
-        <v>5</v>
+      <c r="B22" s="2">
+        <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43919</v>
       </c>
-      <c r="B23" s="1">
-        <v>5</v>
+      <c r="B23" s="2">
+        <v>15</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -2637,41 +1678,41 @@
       <c r="A24" s="4">
         <v>43920</v>
       </c>
-      <c r="B24" s="1">
-        <v>5</v>
+      <c r="B24" s="2">
+        <v>19</v>
       </c>
       <c r="C24" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43921</v>
       </c>
-      <c r="B25" s="1">
-        <v>5</v>
+      <c r="B25" s="2">
+        <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43922</v>
       </c>
-      <c r="B26" s="1">
-        <v>6</v>
+      <c r="B26" s="2">
+        <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43923</v>
       </c>
-      <c r="B27" s="1">
-        <v>6</v>
+      <c r="B27" s="2">
+        <v>25</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -2681,33 +1722,33 @@
       <c r="A28" s="4">
         <v>43924</v>
       </c>
-      <c r="B28" s="1">
-        <v>6</v>
+      <c r="B28" s="2">
+        <v>26</v>
       </c>
       <c r="C28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43925</v>
       </c>
-      <c r="B29" s="1">
-        <v>8</v>
+      <c r="B29" s="2">
+        <v>30</v>
       </c>
       <c r="C29" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43926</v>
       </c>
-      <c r="B30" s="1">
-        <v>9</v>
+      <c r="B30" s="2">
+        <v>33</v>
       </c>
       <c r="C30" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2715,11 +1756,10 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B82" si="0">SUM(B30+C31)</f>
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2727,11 +1767,10 @@
         <v>43928</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2739,11 +1778,10 @@
         <v>43929</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2751,11 +1789,10 @@
         <v>43930</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2763,11 +1800,10 @@
         <v>43931</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2775,8 +1811,8 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" ref="B36:B83" si="0">SUM(B35+C36)</f>
+        <v>36</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
@@ -2788,10 +1824,10 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2800,10 +1836,10 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2812,10 +1848,10 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2824,10 +1860,10 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2836,10 +1872,10 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2848,10 +1884,10 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C42" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2860,10 +1896,10 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C43" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2872,10 +1908,10 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C44" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2884,7 +1920,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C45" s="2">
         <v>10</v>
@@ -2896,10 +1932,10 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C46" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2908,10 +1944,10 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2920,10 +1956,10 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2932,7 +1968,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2">
         <v>4</v>
@@ -2944,10 +1980,10 @@
       </c>
       <c r="B50" s="2">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2956,10 +1992,10 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C51" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2968,10 +2004,10 @@
       </c>
       <c r="B52" s="2">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C52" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2980,10 +2016,10 @@
       </c>
       <c r="B53" s="2">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C53" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2992,10 +2028,10 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C54" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3004,10 +2040,10 @@
       </c>
       <c r="B55" s="2">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C55" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3016,10 +2052,10 @@
       </c>
       <c r="B56" s="2">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C56" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3028,10 +2064,10 @@
       </c>
       <c r="B57" s="2">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C57" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3040,10 +2076,10 @@
       </c>
       <c r="B58" s="2">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>1063</v>
       </c>
       <c r="C58" s="2">
-        <v>2</v>
+        <v>886</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3052,10 +2088,10 @@
       </c>
       <c r="B59" s="2">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>1210</v>
       </c>
       <c r="C59" s="2">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3064,10 +2100,10 @@
       </c>
       <c r="B60" s="2">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>1403</v>
       </c>
       <c r="C60" s="2">
-        <v>1</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3076,10 +2112,10 @@
       </c>
       <c r="B61" s="2">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>1780</v>
       </c>
       <c r="C61" s="2">
-        <v>3</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3088,10 +2124,10 @@
       </c>
       <c r="B62" s="2">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>1910</v>
       </c>
       <c r="C62" s="2">
-        <v>13</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3100,10 +2136,10 @@
       </c>
       <c r="B63" s="2">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>2101</v>
       </c>
       <c r="C63" s="2">
-        <v>7</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3112,10 +2148,10 @@
       </c>
       <c r="B64" s="2">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>2414</v>
       </c>
       <c r="C64" s="2">
-        <v>8</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3124,10 +2160,10 @@
       </c>
       <c r="B65" s="2">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>2650</v>
       </c>
       <c r="C65" s="2">
-        <v>14</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3136,10 +2172,10 @@
       </c>
       <c r="B66" s="2">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>2902</v>
       </c>
       <c r="C66" s="2">
-        <v>11</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3148,10 +2184,10 @@
       </c>
       <c r="B67" s="2">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>3147</v>
       </c>
       <c r="C67" s="2">
-        <v>11</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3160,10 +2196,10 @@
       </c>
       <c r="B68" s="2">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>3361</v>
       </c>
       <c r="C68" s="2">
-        <v>19</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3172,10 +2208,10 @@
       </c>
       <c r="B69" s="2">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>3603</v>
       </c>
       <c r="C69" s="2">
-        <v>14</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3184,10 +2220,10 @@
       </c>
       <c r="B70" s="2">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>3882</v>
       </c>
       <c r="C70" s="2">
-        <v>15</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3196,10 +2232,10 @@
       </c>
       <c r="B71" s="2">
         <f t="shared" si="0"/>
-        <v>314</v>
+        <v>4117</v>
       </c>
       <c r="C71" s="2">
-        <v>16</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3208,10 +2244,10 @@
       </c>
       <c r="B72" s="2">
         <f t="shared" si="0"/>
-        <v>328</v>
+        <v>4373</v>
       </c>
       <c r="C72" s="2">
-        <v>14</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3220,10 +2256,10 @@
       </c>
       <c r="B73" s="2">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>4585</v>
       </c>
       <c r="C73" s="2">
-        <v>21</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3232,10 +2268,10 @@
       </c>
       <c r="B74" s="2">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>4993</v>
       </c>
       <c r="C74" s="2">
-        <v>21</v>
+        <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3244,10 +2280,10 @@
       </c>
       <c r="B75" s="2">
         <f t="shared" si="0"/>
-        <v>386</v>
+        <v>5207</v>
       </c>
       <c r="C75" s="2">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3256,10 +2292,10 @@
       </c>
       <c r="B76" s="2">
         <f t="shared" si="0"/>
-        <v>408</v>
+        <v>5602</v>
       </c>
       <c r="C76" s="2">
-        <v>22</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3268,10 +2304,10 @@
       </c>
       <c r="B77" s="2">
         <f t="shared" si="0"/>
-        <v>432</v>
+        <v>6190</v>
       </c>
       <c r="C77" s="2">
-        <v>24</v>
+        <v>588</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3280,10 +2316,10 @@
       </c>
       <c r="B78" s="2">
         <f t="shared" si="0"/>
-        <v>452</v>
+        <v>6486</v>
       </c>
       <c r="C78" s="2">
-        <v>20</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3292,10 +2328,10 @@
       </c>
       <c r="B79" s="2">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>6901</v>
       </c>
       <c r="C79" s="2">
-        <v>28</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3304,10 +2340,10 @@
       </c>
       <c r="B80" s="2">
         <f t="shared" si="0"/>
-        <v>501</v>
+        <v>7334</v>
       </c>
       <c r="C80" s="2">
-        <v>21</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3316,10 +2352,10 @@
       </c>
       <c r="B81" s="2">
         <f t="shared" si="0"/>
-        <v>522</v>
+        <v>7579</v>
       </c>
       <c r="C81" s="2">
-        <v>21</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3328,10 +2364,1010 @@
       </c>
       <c r="B82" s="2">
         <f t="shared" si="0"/>
+        <v>7925</v>
+      </c>
+      <c r="C82" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>43979</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" si="0"/>
+        <v>8425</v>
+      </c>
+      <c r="C83" s="2">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C28"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43898</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>43899</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>43900</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>43901</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>43902</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>43903</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>43904</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>43905</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43906</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>43907</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43908</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>43909</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>43910</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>43911</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>43912</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>43913</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43914</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>43915</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>43916</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>43918</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>43919</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>43920</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>43921</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>43922</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>43923</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>43924</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>43925</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>43926</v>
+      </c>
+      <c r="B30" s="1">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>43927</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" ref="B31:B83" si="0">SUM(B30+C31)</f>
+        <v>12</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>43928</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>43929</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>43930</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>43931</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>43932</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>43933</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>43934</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>43935</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C39" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>43936</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>43937</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>43938</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C42" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>43939</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C43" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43940</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="C44" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C46" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>43943</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43944</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="C48" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>43945</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>43946</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C50" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>43948</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="C52" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>43949</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>43950</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="C54" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>43951</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>43952</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>43953</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>43954</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>43955</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>43956</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>43957</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>43958</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="C62" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>43959</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="C63" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>43960</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="C64" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>43961</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="C65" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>43962</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="C66" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>43963</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="C67" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>43964</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="C68" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>43965</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
+      <c r="C69" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>43966</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="C70" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>43967</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="0"/>
+        <v>314</v>
+      </c>
+      <c r="C71" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>43968</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="0"/>
+        <v>328</v>
+      </c>
+      <c r="C72" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>43969</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="0"/>
+        <v>349</v>
+      </c>
+      <c r="C73" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>43970</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="C74" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>43971</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="0"/>
+        <v>386</v>
+      </c>
+      <c r="C75" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>43972</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
+      <c r="C76" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>43973</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="C77" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>43974</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="0"/>
+        <v>452</v>
+      </c>
+      <c r="C78" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>43975</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="C79" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>43976</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="0"/>
+        <v>501</v>
+      </c>
+      <c r="C80" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>43977</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="0"/>
+        <v>522</v>
+      </c>
+      <c r="C81" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>43978</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="0"/>
         <v>544</v>
       </c>
       <c r="C82" s="2">
         <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>43979</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" si="0"/>
+        <v>559</v>
+      </c>
+      <c r="C83" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+      <selection activeCell="B83" sqref="B83:B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B83" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B84" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1393,6 +1393,18 @@
       </c>
       <c r="C83" s="2">
         <v>2029</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>43980</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" si="0"/>
+        <v>42844</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2523</v>
       </c>
     </row>
   </sheetData>
@@ -1408,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+      <selection activeCell="B83" sqref="B83:B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,7 +1823,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B83" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B84" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2380,6 +2392,18 @@
       </c>
       <c r="C83" s="2">
         <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>43980</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" si="0"/>
+        <v>9015</v>
+      </c>
+      <c r="C84" s="2">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -2391,10 +2415,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="B83" sqref="B83:B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,7 +2763,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B83" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B84" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3368,6 +3392,18 @@
       </c>
       <c r="C83" s="2">
         <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>43980</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" si="0"/>
+        <v>582</v>
+      </c>
+      <c r="C84" s="2">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:B84"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B84" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B85" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1405,6 +1405,18 @@
       </c>
       <c r="C84" s="2">
         <v>2523</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>43981</v>
+      </c>
+      <c r="B85" s="2">
+        <f t="shared" si="0"/>
+        <v>44608</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1764</v>
       </c>
     </row>
   </sheetData>
@@ -1420,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:B84"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,7 +1835,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B84" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B85" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2404,6 +2416,18 @@
       </c>
       <c r="C84" s="2">
         <v>590</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>43981</v>
+      </c>
+      <c r="B85" s="2">
+        <f t="shared" si="0"/>
+        <v>9375</v>
+      </c>
+      <c r="C85" s="2">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2415,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:B84"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,7 +2787,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B84" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B85" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3404,6 +3428,18 @@
       </c>
       <c r="C84" s="2">
         <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>43981</v>
+      </c>
+      <c r="B85" s="2">
+        <f t="shared" si="0"/>
+        <v>610</v>
+      </c>
+      <c r="C85" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84:B85"/>
+      <selection activeCell="B85" sqref="B85:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B85" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B86" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1417,6 +1417,18 @@
       </c>
       <c r="C85" s="2">
         <v>1764</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" si="0"/>
+        <v>47153</v>
+      </c>
+      <c r="C86" s="2">
+        <v>2545</v>
       </c>
     </row>
   </sheetData>
@@ -1432,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84:B85"/>
+      <selection activeCell="B85" sqref="B85:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,7 +1847,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B85" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B86" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2428,6 +2440,18 @@
       </c>
       <c r="C85" s="2">
         <v>360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" si="0"/>
+        <v>9781</v>
+      </c>
+      <c r="C86" s="2">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -2439,10 +2463,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84:B85"/>
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2787,7 +2811,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B85" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B86" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3440,6 +3464,18 @@
       </c>
       <c r="C85" s="2">
         <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="C86" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85:B86"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B86" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B87" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1429,6 +1429,18 @@
       </c>
       <c r="C86" s="2">
         <v>2545</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>43983</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" si="0"/>
+        <v>49534</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2381</v>
       </c>
     </row>
   </sheetData>
@@ -1444,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85:B86"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1859,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B86" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B87" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2452,6 +2464,18 @@
       </c>
       <c r="C86" s="2">
         <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>43983</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" si="0"/>
+        <v>10597</v>
+      </c>
+      <c r="C87" s="2">
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -2463,10 +2487,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2811,7 +2835,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B86" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B87" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3476,6 +3500,18 @@
       </c>
       <c r="C86" s="2">
         <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>43983</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" si="0"/>
+        <v>672</v>
+      </c>
+      <c r="C87" s="2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:B87"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B87" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B88" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1441,6 +1441,18 @@
       </c>
       <c r="C87" s="2">
         <v>2381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>43984</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="0"/>
+        <v>52445</v>
+      </c>
+      <c r="C88" s="2">
+        <v>2911</v>
       </c>
     </row>
   </sheetData>
@@ -1456,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:B87"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,7 +1871,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B87" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B88" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2476,6 +2488,18 @@
       </c>
       <c r="C87" s="2">
         <v>816</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>43984</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="0"/>
+        <v>11120</v>
+      </c>
+      <c r="C88" s="2">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -2487,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2835,7 +2859,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B87" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B88" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3512,6 +3536,18 @@
       </c>
       <c r="C87" s="2">
         <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>43984</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="0"/>
+        <v>709</v>
+      </c>
+      <c r="C88" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+      <selection activeCell="B88" sqref="B88:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B88" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B89" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1453,6 +1453,18 @@
       </c>
       <c r="C88" s="2">
         <v>2911</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="0"/>
+        <v>55140</v>
+      </c>
+      <c r="C89" s="2">
+        <v>2695</v>
       </c>
     </row>
   </sheetData>
@@ -1468,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87:B88"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,7 +1883,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B88" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B89" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2500,6 +2512,18 @@
       </c>
       <c r="C88" s="2">
         <v>523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="0"/>
+        <v>11590</v>
+      </c>
+      <c r="C89" s="2">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -2511,10 +2535,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,7 +2883,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B88" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B89" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3547,6 +3571,18 @@
         <v>709</v>
       </c>
       <c r="C88" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="0"/>
+        <v>746</v>
+      </c>
+      <c r="C89" s="2">
         <v>37</v>
       </c>
     </row>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88:B89"/>
+      <selection activeCell="B89" sqref="B89:B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B89" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B90" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1465,6 +1465,18 @@
       </c>
       <c r="C89" s="2">
         <v>2695</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>43986</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" si="0"/>
+        <v>57563</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2423</v>
       </c>
     </row>
   </sheetData>
@@ -1480,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,7 +1895,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B89" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B90" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2524,6 +2536,18 @@
       </c>
       <c r="C89" s="2">
         <v>470</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>43986</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" si="0"/>
+        <v>12161</v>
+      </c>
+      <c r="C90" s="2">
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -2535,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89:B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,7 +2907,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B89" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B90" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3584,6 +3608,18 @@
       </c>
       <c r="C89" s="2">
         <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>43986</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" si="0"/>
+        <v>781</v>
+      </c>
+      <c r="C90" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89:B90"/>
+      <selection activeCell="B90" sqref="B90:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B90" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B91" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1477,6 +1477,18 @@
       </c>
       <c r="C90" s="2">
         <v>2423</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>43987</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" si="0"/>
+        <v>60391</v>
+      </c>
+      <c r="C91" s="2">
+        <v>2828</v>
       </c>
     </row>
   </sheetData>
@@ -1492,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,7 +1907,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B90" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B91" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2548,6 +2560,18 @@
       </c>
       <c r="C90" s="2">
         <v>571</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>43987</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" si="0"/>
+        <v>12804</v>
+      </c>
+      <c r="C91" s="2">
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -2559,10 +2583,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89:B90"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,7 +2931,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B90" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B91" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3620,6 +3644,18 @@
       </c>
       <c r="C90" s="2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>43987</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" si="0"/>
+        <v>811</v>
+      </c>
+      <c r="C91" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90:B91"/>
+      <selection activeCell="B91" sqref="B91:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B91" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B92" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1489,6 +1489,18 @@
       </c>
       <c r="C91" s="2">
         <v>2828</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>43988</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="0"/>
+        <v>63026</v>
+      </c>
+      <c r="C92" s="2">
+        <v>2635</v>
       </c>
     </row>
   </sheetData>
@@ -1504,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90:B91"/>
+      <selection activeCell="B91" sqref="B91:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,7 +1919,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B91" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B92" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2572,6 +2584,18 @@
       </c>
       <c r="C91" s="2">
         <v>643</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>43988</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="0"/>
+        <v>13325</v>
+      </c>
+      <c r="C92" s="2">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -2583,10 +2607,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90:B91"/>
+      <selection activeCell="B91" sqref="B91:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2931,7 +2955,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B91" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B92" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3656,6 +3680,18 @@
       </c>
       <c r="C91" s="2">
         <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>43988</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="0"/>
+        <v>846</v>
+      </c>
+      <c r="C92" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:B92"/>
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,11 +1496,23 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
         <v>2635</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>43989</v>
+      </c>
+      <c r="B93" s="2">
+        <f>SUM(B92+C93)</f>
+        <v>65769</v>
+      </c>
+      <c r="C93" s="2">
+        <v>2743</v>
       </c>
     </row>
   </sheetData>
@@ -1516,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:B92"/>
+      <selection activeCell="B92" sqref="B92:B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,7 +1931,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B92" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B93" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2596,6 +2608,18 @@
       </c>
       <c r="C92" s="2">
         <v>521</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>43989</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" si="0"/>
+        <v>13903</v>
+      </c>
+      <c r="C93" s="2">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -2607,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:B92"/>
+      <selection activeCell="B92" sqref="B92:B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2955,7 +2979,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B92" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B93" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3692,6 +3716,18 @@
       </c>
       <c r="C92" s="2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>43989</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" si="0"/>
+        <v>888</v>
+      </c>
+      <c r="C93" s="2">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B92" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B91" si="0">SUM(B30+C31)</f>
         <v>123</v>
       </c>
       <c r="C31" s="2">
@@ -1513,6 +1513,18 @@
       </c>
       <c r="C93" s="2">
         <v>2743</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>43990</v>
+      </c>
+      <c r="B94" s="2">
+        <f>SUM(B93+C94)</f>
+        <v>68504</v>
+      </c>
+      <c r="C94" s="2">
+        <v>2735</v>
       </c>
     </row>
   </sheetData>
@@ -1528,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92:B93"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,7 +1943,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B93" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B94" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2620,6 +2632,18 @@
       </c>
       <c r="C93" s="2">
         <v>578</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>43990</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" si="0"/>
+        <v>14560</v>
+      </c>
+      <c r="C94" s="2">
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -2631,10 +2655,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92:B93"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2979,7 +3003,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B93" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B94" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3727,6 +3751,18 @@
         <v>888</v>
       </c>
       <c r="C93" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>43990</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" si="0"/>
+        <v>930</v>
+      </c>
+      <c r="C94" s="2">
         <v>42</v>
       </c>
     </row>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93:B94"/>
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,6 +1525,18 @@
       </c>
       <c r="C94" s="2">
         <v>2735</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>43991</v>
+      </c>
+      <c r="B95" s="2">
+        <f>SUM(B94+C95)</f>
+        <v>71675</v>
+      </c>
+      <c r="C95" s="2">
+        <v>3171</v>
       </c>
     </row>
   </sheetData>
@@ -1540,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93:B94"/>
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,7 +1955,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B94" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B95" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2644,6 +2656,18 @@
       </c>
       <c r="C94" s="2">
         <v>657</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>43991</v>
+      </c>
+      <c r="B95" s="2">
+        <f t="shared" si="0"/>
+        <v>15337</v>
+      </c>
+      <c r="C95" s="2">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -2655,10 +2679,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93:B94"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,7 +3027,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B94" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B95" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3764,6 +3788,18 @@
       </c>
       <c r="C94" s="2">
         <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>43991</v>
+      </c>
+      <c r="B95" s="2">
+        <f t="shared" si="0"/>
+        <v>975</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+      <selection activeCell="B95" sqref="B95:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,6 +1537,18 @@
       </c>
       <c r="C95" s="2">
         <v>3171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>43992</v>
+      </c>
+      <c r="B96" s="2">
+        <f>SUM(B95+C96)</f>
+        <v>74865</v>
+      </c>
+      <c r="C96" s="2">
+        <v>3190</v>
       </c>
     </row>
   </sheetData>
@@ -1552,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+      <selection activeCell="B95" sqref="B95:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,7 +1967,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B95" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B96" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2668,6 +2680,18 @@
       </c>
       <c r="C95" s="2">
         <v>777</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>43992</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" si="0"/>
+        <v>15900</v>
+      </c>
+      <c r="C96" s="2">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -2679,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+      <selection activeCell="B95" sqref="B95:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,7 +3051,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B95" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B96" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3800,6 +3824,18 @@
       </c>
       <c r="C95" s="2">
         <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>43992</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" si="0"/>
+        <v>1012</v>
+      </c>
+      <c r="C96" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95:B96"/>
+      <selection activeCell="B96" sqref="B96:B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,6 +1549,18 @@
       </c>
       <c r="C96" s="2">
         <v>3190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B97" s="2">
+        <f>SUM(B96+C97)</f>
+        <v>78052</v>
+      </c>
+      <c r="C97" s="2">
+        <v>3187</v>
       </c>
     </row>
   </sheetData>
@@ -1564,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95:B96"/>
+      <selection activeCell="B96" sqref="B96:B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1967,7 +1979,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B96" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B97" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2692,6 +2704,18 @@
       </c>
       <c r="C96" s="2">
         <v>563</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B97" s="2">
+        <f t="shared" si="0"/>
+        <v>16748</v>
+      </c>
+      <c r="C97" s="2">
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -2703,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95:B96"/>
+      <selection activeCell="B96" sqref="B96:B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,7 +3075,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B96" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B97" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3835,6 +3859,18 @@
         <v>1012</v>
       </c>
       <c r="C96" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B97" s="2">
+        <f t="shared" si="0"/>
+        <v>1049</v>
+      </c>
+      <c r="C97" s="2">
         <v>37</v>
       </c>
     </row>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96:B97"/>
+      <selection activeCell="B97" sqref="B97:B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f>SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B98" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1508,7 +1508,7 @@
         <v>43989</v>
       </c>
       <c r="B93" s="2">
-        <f>SUM(B92+C93)</f>
+        <f t="shared" si="1"/>
         <v>65769</v>
       </c>
       <c r="C93" s="2">
@@ -1520,7 +1520,7 @@
         <v>43990</v>
       </c>
       <c r="B94" s="2">
-        <f>SUM(B93+C94)</f>
+        <f t="shared" si="1"/>
         <v>68504</v>
       </c>
       <c r="C94" s="2">
@@ -1532,7 +1532,7 @@
         <v>43991</v>
       </c>
       <c r="B95" s="2">
-        <f>SUM(B94+C95)</f>
+        <f t="shared" si="1"/>
         <v>71675</v>
       </c>
       <c r="C95" s="2">
@@ -1544,7 +1544,7 @@
         <v>43992</v>
       </c>
       <c r="B96" s="2">
-        <f>SUM(B95+C96)</f>
+        <f t="shared" si="1"/>
         <v>74865</v>
       </c>
       <c r="C96" s="2">
@@ -1556,11 +1556,23 @@
         <v>43993</v>
       </c>
       <c r="B97" s="2">
-        <f>SUM(B96+C97)</f>
+        <f t="shared" si="1"/>
         <v>78052</v>
       </c>
       <c r="C97" s="2">
         <v>3187</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>43994</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" si="1"/>
+        <v>81523</v>
+      </c>
+      <c r="C98" s="2">
+        <v>3471</v>
       </c>
     </row>
   </sheetData>
@@ -1576,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96:B97"/>
+      <selection activeCell="B97" sqref="B97:B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,7 +1991,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B97" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B98" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2716,6 +2728,18 @@
       </c>
       <c r="C97" s="2">
         <v>848</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>43994</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" si="0"/>
+        <v>17250</v>
+      </c>
+      <c r="C98" s="2">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -2727,10 +2751,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96:B97"/>
+      <selection activeCell="B97" sqref="B97:B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3075,7 +3099,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B97" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B98" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3872,6 +3896,18 @@
       </c>
       <c r="C97" s="2">
         <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>43994</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" si="0"/>
+        <v>1095</v>
+      </c>
+      <c r="C98" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97:B98"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B98" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B100" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1573,6 +1573,30 @@
       </c>
       <c r="C98" s="2">
         <v>3471</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>43995</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" si="1"/>
+        <v>84379</v>
+      </c>
+      <c r="C99" s="2">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>43996</v>
+      </c>
+      <c r="B100" s="2">
+        <f t="shared" si="1"/>
+        <v>87520</v>
+      </c>
+      <c r="C100" s="2">
+        <v>3141</v>
       </c>
     </row>
   </sheetData>
@@ -1588,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97:B98"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,7 +2015,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B98" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B100" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2740,6 +2764,30 @@
       </c>
       <c r="C98" s="2">
         <v>502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>43995</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" si="0"/>
+        <v>17828</v>
+      </c>
+      <c r="C99" s="2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>43996</v>
+      </c>
+      <c r="B100" s="2">
+        <f t="shared" si="0"/>
+        <v>18731</v>
+      </c>
+      <c r="C100" s="2">
+        <v>903</v>
       </c>
     </row>
   </sheetData>
@@ -2751,10 +2799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97:B98"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99:B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3099,7 +3147,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B98" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B100" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3908,6 +3956,30 @@
       </c>
       <c r="C98" s="2">
         <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>43995</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" si="0"/>
+        <v>1139</v>
+      </c>
+      <c r="C99" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>43996</v>
+      </c>
+      <c r="B100" s="2">
+        <f t="shared" si="0"/>
+        <v>1171</v>
+      </c>
+      <c r="C100" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99:B100"/>
+      <selection activeCell="B100" sqref="B100:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B100" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B101" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1597,6 +1597,18 @@
       </c>
       <c r="C100" s="2">
         <v>3141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>43997</v>
+      </c>
+      <c r="B101" s="2">
+        <f t="shared" si="1"/>
+        <v>90619</v>
+      </c>
+      <c r="C101" s="2">
+        <v>3099</v>
       </c>
     </row>
   </sheetData>
@@ -1612,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99:B100"/>
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,6 +2802,11 @@
         <v>903</v>
       </c>
     </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>43997</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2799,10 +2816,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99:B100"/>
+      <selection activeCell="B100" sqref="B100:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,7 +3164,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B100" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B101" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -3980,6 +3997,18 @@
       </c>
       <c r="C100" s="2">
         <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>43997</v>
+      </c>
+      <c r="B101" s="2">
+        <f t="shared" si="0"/>
+        <v>1209</v>
+      </c>
+      <c r="C101" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100:B101"/>
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B101" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B102" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1609,6 +1609,18 @@
       </c>
       <c r="C101" s="2">
         <v>3099</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B102" s="2">
+        <f t="shared" si="1"/>
+        <v>94481</v>
+      </c>
+      <c r="C102" s="2">
+        <v>3862</v>
       </c>
     </row>
   </sheetData>
@@ -1624,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,7 +2039,7 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B100" si="0">SUM(B35+C36)</f>
+        <f t="shared" ref="B36:B101" si="0">SUM(B35+C36)</f>
         <v>36</v>
       </c>
       <c r="C36" s="2">
@@ -2805,6 +2817,25 @@
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>43997</v>
+      </c>
+      <c r="B101" s="2">
+        <f t="shared" si="0"/>
+        <v>34027</v>
+      </c>
+      <c r="C101" s="2">
+        <v>15296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B102" s="2">
+        <f t="shared" ref="B102" si="1">SUM(B101+C102)</f>
+        <v>36264</v>
+      </c>
+      <c r="C102" s="2">
+        <v>2237</v>
       </c>
     </row>
   </sheetData>
@@ -2816,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100:B101"/>
+      <selection activeCell="B101" sqref="B101:B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3164,7 +3195,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B101" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B102" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4009,6 +4040,18 @@
       </c>
       <c r="C101" s="2">
         <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B102" s="2">
+        <f t="shared" si="0"/>
+        <v>1262</v>
+      </c>
+      <c r="C102" s="2">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B102" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B103" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1621,6 +1621,18 @@
       </c>
       <c r="C102" s="2">
         <v>3862</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>43999</v>
+      </c>
+      <c r="B103" s="2">
+        <f t="shared" si="1"/>
+        <v>98489</v>
+      </c>
+      <c r="C103" s="2">
+        <v>4008</v>
       </c>
     </row>
   </sheetData>
@@ -1636,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,11 +2843,23 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B103" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
         <v>2237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>43999</v>
+      </c>
+      <c r="B103" s="2">
+        <f t="shared" si="1"/>
+        <v>38189</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1925</v>
       </c>
     </row>
   </sheetData>
@@ -2847,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101:B102"/>
+      <selection activeCell="B102" sqref="B102:B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,7 +3219,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B102" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B103" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4052,6 +4076,18 @@
       </c>
       <c r="C102" s="2">
         <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>43999</v>
+      </c>
+      <c r="B103" s="2">
+        <f t="shared" si="0"/>
+        <v>1310</v>
+      </c>
+      <c r="C103" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+      <selection activeCell="B103" sqref="B103:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B103" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B104" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1633,6 +1633,18 @@
       </c>
       <c r="C103" s="2">
         <v>4008</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>44000</v>
+      </c>
+      <c r="B104" s="2">
+        <f t="shared" si="1"/>
+        <v>102292</v>
+      </c>
+      <c r="C104" s="2">
+        <v>3803</v>
       </c>
     </row>
   </sheetData>
@@ -1648,9 +1660,1244 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103:B104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43898</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>43899</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>43900</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>43901</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>43902</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>43903</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>43904</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>43905</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43906</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>43907</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43908</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>43909</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>43910</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>43911</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>43912</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>43913</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43914</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>43915</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>43916</v>
+      </c>
+      <c r="B20" s="2">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>43917</v>
+      </c>
+      <c r="B21" s="2">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>43918</v>
+      </c>
+      <c r="B22" s="2">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>43919</v>
+      </c>
+      <c r="B23" s="2">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>43920</v>
+      </c>
+      <c r="B24" s="2">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>43921</v>
+      </c>
+      <c r="B25" s="2">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>43922</v>
+      </c>
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>43923</v>
+      </c>
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>43924</v>
+      </c>
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>43925</v>
+      </c>
+      <c r="B29" s="2">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>43926</v>
+      </c>
+      <c r="B30" s="2">
+        <v>33</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>43927</v>
+      </c>
+      <c r="B31" s="2">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>43928</v>
+      </c>
+      <c r="B32" s="2">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>43929</v>
+      </c>
+      <c r="B33" s="2">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>43930</v>
+      </c>
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>43931</v>
+      </c>
+      <c r="B35" s="2">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>43932</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" ref="B36:B101" si="0">SUM(B35+C36)</f>
+        <v>36</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>43933</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>43934</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>43935</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>43936</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C40" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>43937</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>43938</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>43939</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C43" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43940</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C44" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>43941</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>43942</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>43943</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43944</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="C48" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>43945</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>43946</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="C51" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>43948</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="C52" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>43949</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="C53" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>43950</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="C54" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>43951</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="C55" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>43952</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="C56" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>43953</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>43954</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
+        <v>1063</v>
+      </c>
+      <c r="C58" s="2">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>43955</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="0"/>
+        <v>1210</v>
+      </c>
+      <c r="C59" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>43956</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="0"/>
+        <v>1403</v>
+      </c>
+      <c r="C60" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>43957</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="0"/>
+        <v>1780</v>
+      </c>
+      <c r="C61" s="2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>43958</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="0"/>
+        <v>1910</v>
+      </c>
+      <c r="C62" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>43959</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="0"/>
+        <v>2101</v>
+      </c>
+      <c r="C63" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>43960</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="0"/>
+        <v>2414</v>
+      </c>
+      <c r="C64" s="2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>43961</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="0"/>
+        <v>2650</v>
+      </c>
+      <c r="C65" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>43962</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="0"/>
+        <v>2902</v>
+      </c>
+      <c r="C66" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>43963</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="0"/>
+        <v>3147</v>
+      </c>
+      <c r="C67" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>43964</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="0"/>
+        <v>3361</v>
+      </c>
+      <c r="C68" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>43965</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="0"/>
+        <v>3603</v>
+      </c>
+      <c r="C69" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>43966</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="0"/>
+        <v>3882</v>
+      </c>
+      <c r="C70" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>43967</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="0"/>
+        <v>4117</v>
+      </c>
+      <c r="C71" s="2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>43968</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="0"/>
+        <v>4373</v>
+      </c>
+      <c r="C72" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>43969</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="0"/>
+        <v>4585</v>
+      </c>
+      <c r="C73" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>43970</v>
+      </c>
+      <c r="B74" s="2">
+        <f t="shared" si="0"/>
+        <v>4993</v>
+      </c>
+      <c r="C74" s="2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>43971</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" si="0"/>
+        <v>5207</v>
+      </c>
+      <c r="C75" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>43972</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="0"/>
+        <v>5602</v>
+      </c>
+      <c r="C76" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>43973</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="0"/>
+        <v>6190</v>
+      </c>
+      <c r="C77" s="2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>43974</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="0"/>
+        <v>6486</v>
+      </c>
+      <c r="C78" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>43975</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="0"/>
+        <v>6901</v>
+      </c>
+      <c r="C79" s="2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>43976</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="0"/>
+        <v>7334</v>
+      </c>
+      <c r="C80" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>43977</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="0"/>
+        <v>7579</v>
+      </c>
+      <c r="C81" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>43978</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="0"/>
+        <v>7925</v>
+      </c>
+      <c r="C82" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>43979</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" si="0"/>
+        <v>8425</v>
+      </c>
+      <c r="C83" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>43980</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" si="0"/>
+        <v>9015</v>
+      </c>
+      <c r="C84" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>43981</v>
+      </c>
+      <c r="B85" s="2">
+        <f t="shared" si="0"/>
+        <v>9375</v>
+      </c>
+      <c r="C85" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>43982</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" si="0"/>
+        <v>9781</v>
+      </c>
+      <c r="C86" s="2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>43983</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" si="0"/>
+        <v>10597</v>
+      </c>
+      <c r="C87" s="2">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>43984</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="0"/>
+        <v>11120</v>
+      </c>
+      <c r="C88" s="2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="0"/>
+        <v>11590</v>
+      </c>
+      <c r="C89" s="2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>43986</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" si="0"/>
+        <v>12161</v>
+      </c>
+      <c r="C90" s="2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>43987</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" si="0"/>
+        <v>12804</v>
+      </c>
+      <c r="C91" s="2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>43988</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="0"/>
+        <v>13325</v>
+      </c>
+      <c r="C92" s="2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>43989</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" si="0"/>
+        <v>13903</v>
+      </c>
+      <c r="C93" s="2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>43990</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" si="0"/>
+        <v>14560</v>
+      </c>
+      <c r="C94" s="2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>43991</v>
+      </c>
+      <c r="B95" s="2">
+        <f t="shared" si="0"/>
+        <v>15337</v>
+      </c>
+      <c r="C95" s="2">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>43992</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" si="0"/>
+        <v>15900</v>
+      </c>
+      <c r="C96" s="2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B97" s="2">
+        <f t="shared" si="0"/>
+        <v>16748</v>
+      </c>
+      <c r="C97" s="2">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>43994</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" si="0"/>
+        <v>17250</v>
+      </c>
+      <c r="C98" s="2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>43995</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" si="0"/>
+        <v>17828</v>
+      </c>
+      <c r="C99" s="2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>43996</v>
+      </c>
+      <c r="B100" s="2">
+        <f t="shared" si="0"/>
+        <v>18731</v>
+      </c>
+      <c r="C100" s="2">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>43997</v>
+      </c>
+      <c r="B101" s="2">
+        <f t="shared" si="0"/>
+        <v>34027</v>
+      </c>
+      <c r="C101" s="2">
+        <v>15296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B102" s="2">
+        <f t="shared" ref="B102:B104" si="1">SUM(B101+C102)</f>
+        <v>36264</v>
+      </c>
+      <c r="C102" s="2">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>43999</v>
+      </c>
+      <c r="B103" s="2">
+        <f t="shared" si="1"/>
+        <v>38189</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>44000</v>
+      </c>
+      <c r="B104" s="2">
+        <f t="shared" si="1"/>
+        <v>40164</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1975</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C28"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
@@ -1666,17 +2913,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43898</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="2">
@@ -1687,7 +2934,7 @@
       <c r="A3" s="4">
         <v>43899</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="2">
@@ -1698,7 +2945,7 @@
       <c r="A4" s="4">
         <v>43900</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="2">
@@ -1709,7 +2956,7 @@
       <c r="A5" s="4">
         <v>43901</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="2">
@@ -1720,7 +2967,7 @@
       <c r="A6" s="4">
         <v>43902</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="2">
@@ -1731,7 +2978,7 @@
       <c r="A7" s="4">
         <v>43903</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="2">
@@ -1742,7 +2989,7 @@
       <c r="A8" s="4">
         <v>43904</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" s="2">
@@ -1753,7 +3000,7 @@
       <c r="A9" s="4">
         <v>43905</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="2">
@@ -1764,41 +3011,41 @@
       <c r="A10" s="4">
         <v>43906</v>
       </c>
-      <c r="B10" s="2">
-        <v>2</v>
+      <c r="B10" s="1">
+        <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43907</v>
       </c>
-      <c r="B11" s="2">
-        <v>3</v>
+      <c r="B11" s="1">
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43908</v>
       </c>
-      <c r="B12" s="2">
-        <v>3</v>
+      <c r="B12" s="1">
+        <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43909</v>
       </c>
-      <c r="B13" s="2">
-        <v>3</v>
+      <c r="B13" s="1">
+        <v>1</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -1808,8 +3055,8 @@
       <c r="A14" s="4">
         <v>43910</v>
       </c>
-      <c r="B14" s="2">
-        <v>3</v>
+      <c r="B14" s="1">
+        <v>1</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -1819,19 +3066,19 @@
       <c r="A15" s="4">
         <v>43911</v>
       </c>
-      <c r="B15" s="2">
-        <v>3</v>
+      <c r="B15" s="1">
+        <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43912</v>
       </c>
-      <c r="B16" s="2">
-        <v>3</v>
+      <c r="B16" s="1">
+        <v>2</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -1841,52 +3088,52 @@
       <c r="A17" s="4">
         <v>43913</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43914</v>
       </c>
-      <c r="B18" s="2">
-        <v>5</v>
+      <c r="B18" s="1">
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43915</v>
       </c>
-      <c r="B19" s="2">
-        <v>7</v>
+      <c r="B19" s="1">
+        <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43916</v>
       </c>
-      <c r="B20" s="2">
-        <v>11</v>
+      <c r="B20" s="1">
+        <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43917</v>
       </c>
-      <c r="B21" s="2">
-        <v>11</v>
+      <c r="B21" s="1">
+        <v>5</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -1896,19 +3143,19 @@
       <c r="A22" s="4">
         <v>43918</v>
       </c>
-      <c r="B22" s="2">
-        <v>15</v>
+      <c r="B22" s="1">
+        <v>5</v>
       </c>
       <c r="C22" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43919</v>
       </c>
-      <c r="B23" s="2">
-        <v>15</v>
+      <c r="B23" s="1">
+        <v>5</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -1918,41 +3165,41 @@
       <c r="A24" s="4">
         <v>43920</v>
       </c>
-      <c r="B24" s="2">
-        <v>19</v>
+      <c r="B24" s="1">
+        <v>5</v>
       </c>
       <c r="C24" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43921</v>
       </c>
-      <c r="B25" s="2">
-        <v>25</v>
+      <c r="B25" s="1">
+        <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43922</v>
       </c>
-      <c r="B26" s="2">
-        <v>25</v>
+      <c r="B26" s="1">
+        <v>6</v>
       </c>
       <c r="C26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43923</v>
       </c>
-      <c r="B27" s="2">
-        <v>25</v>
+      <c r="B27" s="1">
+        <v>6</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -1962,33 +3209,33 @@
       <c r="A28" s="4">
         <v>43924</v>
       </c>
-      <c r="B28" s="2">
-        <v>26</v>
+      <c r="B28" s="1">
+        <v>6</v>
       </c>
       <c r="C28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43925</v>
       </c>
-      <c r="B29" s="2">
-        <v>30</v>
+      <c r="B29" s="1">
+        <v>8</v>
       </c>
       <c r="C29" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43926</v>
       </c>
-      <c r="B30" s="2">
-        <v>33</v>
+      <c r="B30" s="1">
+        <v>9</v>
       </c>
       <c r="C30" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1996,10 +3243,11 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <v>33</v>
+        <f t="shared" ref="B31:B104" si="0">SUM(B30+C31)</f>
+        <v>12</v>
       </c>
       <c r="C31" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2007,10 +3255,11 @@
         <v>43928</v>
       </c>
       <c r="B32" s="2">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="C32" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2018,10 +3267,11 @@
         <v>43929</v>
       </c>
       <c r="B33" s="2">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="C33" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2029,10 +3279,11 @@
         <v>43930</v>
       </c>
       <c r="B34" s="2">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="C34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2040,10 +3291,11 @@
         <v>43931</v>
       </c>
       <c r="B35" s="2">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="C35" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2051,8 +3303,8 @@
         <v>43932</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B101" si="0">SUM(B35+C36)</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
@@ -2064,10 +3316,10 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2076,10 +3328,10 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2088,10 +3340,10 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2100,10 +3352,10 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2112,10 +3364,10 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C41" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,10 +3376,10 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C42" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2136,10 +3388,10 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2148,10 +3400,10 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2160,7 +3412,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2">
         <v>10</v>
@@ -2172,10 +3424,10 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C46" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2184,10 +3436,10 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C47" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2196,10 +3448,10 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C48" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2208,7 +3460,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C49" s="2">
         <v>4</v>
@@ -2220,10 +3472,10 @@
       </c>
       <c r="B50" s="2">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C50" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2232,10 +3484,10 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="C51" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2244,10 +3496,10 @@
       </c>
       <c r="B52" s="2">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C52" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2256,10 +3508,10 @@
       </c>
       <c r="B53" s="2">
         <f t="shared" si="0"/>
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C53" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2268,10 +3520,10 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C54" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2280,10 +3532,10 @@
       </c>
       <c r="B55" s="2">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C55" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2292,10 +3544,10 @@
       </c>
       <c r="B56" s="2">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C56" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2304,10 +3556,10 @@
       </c>
       <c r="B57" s="2">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C57" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2316,10 +3568,10 @@
       </c>
       <c r="B58" s="2">
         <f t="shared" si="0"/>
-        <v>1063</v>
+        <v>177</v>
       </c>
       <c r="C58" s="2">
-        <v>886</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2328,10 +3580,10 @@
       </c>
       <c r="B59" s="2">
         <f t="shared" si="0"/>
-        <v>1210</v>
+        <v>182</v>
       </c>
       <c r="C59" s="2">
-        <v>147</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2340,10 +3592,10 @@
       </c>
       <c r="B60" s="2">
         <f t="shared" si="0"/>
-        <v>1403</v>
+        <v>183</v>
       </c>
       <c r="C60" s="2">
-        <v>193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2352,10 +3604,10 @@
       </c>
       <c r="B61" s="2">
         <f t="shared" si="0"/>
-        <v>1780</v>
+        <v>186</v>
       </c>
       <c r="C61" s="2">
-        <v>377</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2364,10 +3616,10 @@
       </c>
       <c r="B62" s="2">
         <f t="shared" si="0"/>
-        <v>1910</v>
+        <v>199</v>
       </c>
       <c r="C62" s="2">
-        <v>130</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2376,10 +3628,10 @@
       </c>
       <c r="B63" s="2">
         <f t="shared" si="0"/>
-        <v>2101</v>
+        <v>206</v>
       </c>
       <c r="C63" s="2">
-        <v>191</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2388,10 +3640,10 @@
       </c>
       <c r="B64" s="2">
         <f t="shared" si="0"/>
-        <v>2414</v>
+        <v>214</v>
       </c>
       <c r="C64" s="2">
-        <v>313</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2400,10 +3652,10 @@
       </c>
       <c r="B65" s="2">
         <f t="shared" si="0"/>
-        <v>2650</v>
+        <v>228</v>
       </c>
       <c r="C65" s="2">
-        <v>236</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2412,10 +3664,10 @@
       </c>
       <c r="B66" s="2">
         <f t="shared" si="0"/>
-        <v>2902</v>
+        <v>239</v>
       </c>
       <c r="C66" s="2">
-        <v>252</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2424,10 +3676,10 @@
       </c>
       <c r="B67" s="2">
         <f t="shared" si="0"/>
-        <v>3147</v>
+        <v>250</v>
       </c>
       <c r="C67" s="2">
-        <v>245</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2436,10 +3688,10 @@
       </c>
       <c r="B68" s="2">
         <f t="shared" si="0"/>
-        <v>3361</v>
+        <v>269</v>
       </c>
       <c r="C68" s="2">
-        <v>214</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2448,10 +3700,10 @@
       </c>
       <c r="B69" s="2">
         <f t="shared" si="0"/>
-        <v>3603</v>
+        <v>283</v>
       </c>
       <c r="C69" s="2">
-        <v>242</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2460,10 +3712,10 @@
       </c>
       <c r="B70" s="2">
         <f t="shared" si="0"/>
-        <v>3882</v>
+        <v>298</v>
       </c>
       <c r="C70" s="2">
-        <v>279</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2472,10 +3724,10 @@
       </c>
       <c r="B71" s="2">
         <f t="shared" si="0"/>
-        <v>4117</v>
+        <v>314</v>
       </c>
       <c r="C71" s="2">
-        <v>235</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2484,10 +3736,10 @@
       </c>
       <c r="B72" s="2">
         <f t="shared" si="0"/>
-        <v>4373</v>
+        <v>328</v>
       </c>
       <c r="C72" s="2">
-        <v>256</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2496,10 +3748,10 @@
       </c>
       <c r="B73" s="2">
         <f t="shared" si="0"/>
-        <v>4585</v>
+        <v>349</v>
       </c>
       <c r="C73" s="2">
-        <v>212</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2508,10 +3760,10 @@
       </c>
       <c r="B74" s="2">
         <f t="shared" si="0"/>
-        <v>4993</v>
+        <v>370</v>
       </c>
       <c r="C74" s="2">
-        <v>408</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2520,10 +3772,10 @@
       </c>
       <c r="B75" s="2">
         <f t="shared" si="0"/>
-        <v>5207</v>
+        <v>386</v>
       </c>
       <c r="C75" s="2">
-        <v>214</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2532,10 +3784,10 @@
       </c>
       <c r="B76" s="2">
         <f t="shared" si="0"/>
-        <v>5602</v>
+        <v>408</v>
       </c>
       <c r="C76" s="2">
-        <v>395</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2544,10 +3796,10 @@
       </c>
       <c r="B77" s="2">
         <f t="shared" si="0"/>
-        <v>6190</v>
+        <v>432</v>
       </c>
       <c r="C77" s="2">
-        <v>588</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2556,10 +3808,10 @@
       </c>
       <c r="B78" s="2">
         <f t="shared" si="0"/>
-        <v>6486</v>
+        <v>452</v>
       </c>
       <c r="C78" s="2">
-        <v>296</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2568,10 +3820,10 @@
       </c>
       <c r="B79" s="2">
         <f t="shared" si="0"/>
-        <v>6901</v>
+        <v>480</v>
       </c>
       <c r="C79" s="2">
-        <v>415</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2580,10 +3832,10 @@
       </c>
       <c r="B80" s="2">
         <f t="shared" si="0"/>
-        <v>7334</v>
+        <v>501</v>
       </c>
       <c r="C80" s="2">
-        <v>433</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2592,10 +3844,10 @@
       </c>
       <c r="B81" s="2">
         <f t="shared" si="0"/>
-        <v>7579</v>
+        <v>522</v>
       </c>
       <c r="C81" s="2">
-        <v>245</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2604,10 +3856,10 @@
       </c>
       <c r="B82" s="2">
         <f t="shared" si="0"/>
-        <v>7925</v>
+        <v>544</v>
       </c>
       <c r="C82" s="2">
-        <v>346</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2616,10 +3868,10 @@
       </c>
       <c r="B83" s="2">
         <f t="shared" si="0"/>
-        <v>8425</v>
+        <v>559</v>
       </c>
       <c r="C83" s="2">
-        <v>500</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2628,10 +3880,10 @@
       </c>
       <c r="B84" s="2">
         <f t="shared" si="0"/>
-        <v>9015</v>
+        <v>582</v>
       </c>
       <c r="C84" s="2">
-        <v>590</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2640,10 +3892,10 @@
       </c>
       <c r="B85" s="2">
         <f t="shared" si="0"/>
-        <v>9375</v>
+        <v>610</v>
       </c>
       <c r="C85" s="2">
-        <v>360</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2652,10 +3904,10 @@
       </c>
       <c r="B86" s="2">
         <f t="shared" si="0"/>
-        <v>9781</v>
+        <v>650</v>
       </c>
       <c r="C86" s="2">
-        <v>406</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2664,10 +3916,10 @@
       </c>
       <c r="B87" s="2">
         <f t="shared" si="0"/>
-        <v>10597</v>
+        <v>672</v>
       </c>
       <c r="C87" s="2">
-        <v>816</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2676,10 +3928,10 @@
       </c>
       <c r="B88" s="2">
         <f t="shared" si="0"/>
-        <v>11120</v>
+        <v>709</v>
       </c>
       <c r="C88" s="2">
-        <v>523</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2688,10 +3940,10 @@
       </c>
       <c r="B89" s="2">
         <f t="shared" si="0"/>
-        <v>11590</v>
+        <v>746</v>
       </c>
       <c r="C89" s="2">
-        <v>470</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2700,10 +3952,10 @@
       </c>
       <c r="B90" s="2">
         <f t="shared" si="0"/>
-        <v>12161</v>
+        <v>781</v>
       </c>
       <c r="C90" s="2">
-        <v>571</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2712,10 +3964,10 @@
       </c>
       <c r="B91" s="2">
         <f t="shared" si="0"/>
-        <v>12804</v>
+        <v>811</v>
       </c>
       <c r="C91" s="2">
-        <v>643</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2724,10 +3976,10 @@
       </c>
       <c r="B92" s="2">
         <f t="shared" si="0"/>
-        <v>13325</v>
+        <v>846</v>
       </c>
       <c r="C92" s="2">
-        <v>521</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2736,10 +3988,10 @@
       </c>
       <c r="B93" s="2">
         <f t="shared" si="0"/>
-        <v>13903</v>
+        <v>888</v>
       </c>
       <c r="C93" s="2">
-        <v>578</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2748,10 +4000,10 @@
       </c>
       <c r="B94" s="2">
         <f t="shared" si="0"/>
-        <v>14560</v>
+        <v>930</v>
       </c>
       <c r="C94" s="2">
-        <v>657</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2760,10 +4012,10 @@
       </c>
       <c r="B95" s="2">
         <f t="shared" si="0"/>
-        <v>15337</v>
+        <v>975</v>
       </c>
       <c r="C95" s="2">
-        <v>777</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2772,10 +4024,10 @@
       </c>
       <c r="B96" s="2">
         <f t="shared" si="0"/>
-        <v>15900</v>
+        <v>1012</v>
       </c>
       <c r="C96" s="2">
-        <v>563</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2784,10 +4036,10 @@
       </c>
       <c r="B97" s="2">
         <f t="shared" si="0"/>
-        <v>16748</v>
+        <v>1049</v>
       </c>
       <c r="C97" s="2">
-        <v>848</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2796,10 +4048,10 @@
       </c>
       <c r="B98" s="2">
         <f t="shared" si="0"/>
-        <v>17250</v>
+        <v>1095</v>
       </c>
       <c r="C98" s="2">
-        <v>502</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2808,10 +4060,10 @@
       </c>
       <c r="B99" s="2">
         <f t="shared" si="0"/>
-        <v>17828</v>
+        <v>1139</v>
       </c>
       <c r="C99" s="2">
-        <v>578</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2820,10 +4072,10 @@
       </c>
       <c r="B100" s="2">
         <f t="shared" si="0"/>
-        <v>18731</v>
+        <v>1171</v>
       </c>
       <c r="C100" s="2">
-        <v>903</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2832,10 +4084,10 @@
       </c>
       <c r="B101" s="2">
         <f t="shared" si="0"/>
-        <v>34027</v>
+        <v>1209</v>
       </c>
       <c r="C101" s="2">
-        <v>15296</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2843,11 +4095,11 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B103" si="1">SUM(B101+C102)</f>
-        <v>36264</v>
+        <f t="shared" si="0"/>
+        <v>1262</v>
       </c>
       <c r="C102" s="2">
-        <v>2237</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2855,1239 +4107,23 @@
         <v>43999</v>
       </c>
       <c r="B103" s="2">
-        <f t="shared" si="1"/>
-        <v>38189</v>
+        <f t="shared" si="0"/>
+        <v>1305</v>
       </c>
       <c r="C103" s="2">
-        <v>1925</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:C28"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C103"/>
-  <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102:B103"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43898</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43899</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43900</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43901</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43902</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>43903</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43904</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43905</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43906</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43907</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43908</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43909</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43910</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43911</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43912</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>43913</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43914</v>
-      </c>
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>43915</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>43916</v>
-      </c>
-      <c r="B20" s="1">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>43917</v>
-      </c>
-      <c r="B21" s="1">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>43918</v>
-      </c>
-      <c r="B22" s="1">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>43919</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>43920</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>43921</v>
-      </c>
-      <c r="B25" s="1">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>43922</v>
-      </c>
-      <c r="B26" s="1">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>43923</v>
-      </c>
-      <c r="B27" s="1">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>43924</v>
-      </c>
-      <c r="B28" s="1">
-        <v>6</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>43925</v>
-      </c>
-      <c r="B29" s="1">
-        <v>8</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>43926</v>
-      </c>
-      <c r="B30" s="1">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>43927</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="shared" ref="B31:B103" si="0">SUM(B30+C31)</f>
-        <v>12</v>
-      </c>
-      <c r="C31" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>43928</v>
-      </c>
-      <c r="B32" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>43929</v>
-      </c>
-      <c r="B33" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C33" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>43930</v>
-      </c>
-      <c r="B34" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>43931</v>
-      </c>
-      <c r="B35" s="2">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C35" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>43932</v>
-      </c>
-      <c r="B36" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C36" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>43933</v>
-      </c>
-      <c r="B37" s="2">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C37" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>43934</v>
-      </c>
-      <c r="B38" s="2">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C38" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>43935</v>
-      </c>
-      <c r="B39" s="2">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C39" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>43936</v>
-      </c>
-      <c r="B40" s="2">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C40" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>43937</v>
-      </c>
-      <c r="B41" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C41" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>43938</v>
-      </c>
-      <c r="B42" s="2">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="C42" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>43939</v>
-      </c>
-      <c r="B43" s="2">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="C43" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>43940</v>
-      </c>
-      <c r="B44" s="2">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-      <c r="C44" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>43941</v>
-      </c>
-      <c r="B45" s="2">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="C45" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>43942</v>
-      </c>
-      <c r="B46" s="2">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="C46" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>43943</v>
-      </c>
-      <c r="B47" s="2">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="C47" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>43944</v>
-      </c>
-      <c r="B48" s="2">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="C48" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>43945</v>
-      </c>
-      <c r="B49" s="2">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="C49" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>43946</v>
-      </c>
-      <c r="B50" s="2">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="C50" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>43947</v>
-      </c>
-      <c r="B51" s="2">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="C51" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>43948</v>
-      </c>
-      <c r="B52" s="2">
-        <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
-      <c r="C52" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>43949</v>
-      </c>
-      <c r="B53" s="2">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="C53" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>43950</v>
-      </c>
-      <c r="B54" s="2">
-        <f t="shared" si="0"/>
-        <v>163</v>
-      </c>
-      <c r="C54" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>43951</v>
-      </c>
-      <c r="B55" s="2">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="C55" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>43952</v>
-      </c>
-      <c r="B56" s="2">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="C56" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B57" s="2">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="C57" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>43954</v>
-      </c>
-      <c r="B58" s="2">
-        <f t="shared" si="0"/>
-        <v>177</v>
-      </c>
-      <c r="C58" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>43955</v>
-      </c>
-      <c r="B59" s="2">
-        <f t="shared" si="0"/>
-        <v>182</v>
-      </c>
-      <c r="C59" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>43956</v>
-      </c>
-      <c r="B60" s="2">
-        <f t="shared" si="0"/>
-        <v>183</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>43957</v>
-      </c>
-      <c r="B61" s="2">
-        <f t="shared" si="0"/>
-        <v>186</v>
-      </c>
-      <c r="C61" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>43958</v>
-      </c>
-      <c r="B62" s="2">
-        <f t="shared" si="0"/>
-        <v>199</v>
-      </c>
-      <c r="C62" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B63" s="2">
-        <f t="shared" si="0"/>
-        <v>206</v>
-      </c>
-      <c r="C63" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>43960</v>
-      </c>
-      <c r="B64" s="2">
-        <f t="shared" si="0"/>
-        <v>214</v>
-      </c>
-      <c r="C64" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>43961</v>
-      </c>
-      <c r="B65" s="2">
-        <f t="shared" si="0"/>
-        <v>228</v>
-      </c>
-      <c r="C65" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>43962</v>
-      </c>
-      <c r="B66" s="2">
-        <f t="shared" si="0"/>
-        <v>239</v>
-      </c>
-      <c r="C66" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>43963</v>
-      </c>
-      <c r="B67" s="2">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="C67" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <v>43964</v>
-      </c>
-      <c r="B68" s="2">
-        <f t="shared" si="0"/>
-        <v>269</v>
-      </c>
-      <c r="C68" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <v>43965</v>
-      </c>
-      <c r="B69" s="2">
-        <f t="shared" si="0"/>
-        <v>283</v>
-      </c>
-      <c r="C69" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B70" s="2">
-        <f t="shared" si="0"/>
-        <v>298</v>
-      </c>
-      <c r="C70" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>43967</v>
-      </c>
-      <c r="B71" s="2">
-        <f t="shared" si="0"/>
-        <v>314</v>
-      </c>
-      <c r="C71" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>43968</v>
-      </c>
-      <c r="B72" s="2">
-        <f t="shared" si="0"/>
-        <v>328</v>
-      </c>
-      <c r="C72" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>43969</v>
-      </c>
-      <c r="B73" s="2">
-        <f t="shared" si="0"/>
-        <v>349</v>
-      </c>
-      <c r="C73" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>43970</v>
-      </c>
-      <c r="B74" s="2">
-        <f t="shared" si="0"/>
-        <v>370</v>
-      </c>
-      <c r="C74" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <v>43971</v>
-      </c>
-      <c r="B75" s="2">
-        <f t="shared" si="0"/>
-        <v>386</v>
-      </c>
-      <c r="C75" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
-        <v>43972</v>
-      </c>
-      <c r="B76" s="2">
-        <f t="shared" si="0"/>
-        <v>408</v>
-      </c>
-      <c r="C76" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
-        <v>43973</v>
-      </c>
-      <c r="B77" s="2">
-        <f t="shared" si="0"/>
-        <v>432</v>
-      </c>
-      <c r="C77" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
-        <v>43974</v>
-      </c>
-      <c r="B78" s="2">
-        <f t="shared" si="0"/>
-        <v>452</v>
-      </c>
-      <c r="C78" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
-        <v>43975</v>
-      </c>
-      <c r="B79" s="2">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-      <c r="C79" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>43976</v>
-      </c>
-      <c r="B80" s="2">
-        <f t="shared" si="0"/>
-        <v>501</v>
-      </c>
-      <c r="C80" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
-        <v>43977</v>
-      </c>
-      <c r="B81" s="2">
-        <f t="shared" si="0"/>
-        <v>522</v>
-      </c>
-      <c r="C81" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
-        <v>43978</v>
-      </c>
-      <c r="B82" s="2">
-        <f t="shared" si="0"/>
-        <v>544</v>
-      </c>
-      <c r="C82" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
-        <v>43979</v>
-      </c>
-      <c r="B83" s="2">
-        <f t="shared" si="0"/>
-        <v>559</v>
-      </c>
-      <c r="C83" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
-        <v>43980</v>
-      </c>
-      <c r="B84" s="2">
-        <f t="shared" si="0"/>
-        <v>582</v>
-      </c>
-      <c r="C84" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
-        <v>43981</v>
-      </c>
-      <c r="B85" s="2">
-        <f t="shared" si="0"/>
-        <v>610</v>
-      </c>
-      <c r="C85" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
-        <v>43982</v>
-      </c>
-      <c r="B86" s="2">
-        <f t="shared" si="0"/>
-        <v>650</v>
-      </c>
-      <c r="C86" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
-        <v>43983</v>
-      </c>
-      <c r="B87" s="2">
-        <f t="shared" si="0"/>
-        <v>672</v>
-      </c>
-      <c r="C87" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
-        <v>43984</v>
-      </c>
-      <c r="B88" s="2">
-        <f t="shared" si="0"/>
-        <v>709</v>
-      </c>
-      <c r="C88" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
-        <v>43985</v>
-      </c>
-      <c r="B89" s="2">
-        <f t="shared" si="0"/>
-        <v>746</v>
-      </c>
-      <c r="C89" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
-        <v>43986</v>
-      </c>
-      <c r="B90" s="2">
-        <f t="shared" si="0"/>
-        <v>781</v>
-      </c>
-      <c r="C90" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
-        <v>43987</v>
-      </c>
-      <c r="B91" s="2">
-        <f t="shared" si="0"/>
-        <v>811</v>
-      </c>
-      <c r="C91" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
-        <v>43988</v>
-      </c>
-      <c r="B92" s="2">
-        <f t="shared" si="0"/>
-        <v>846</v>
-      </c>
-      <c r="C92" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
-        <v>43989</v>
-      </c>
-      <c r="B93" s="2">
-        <f t="shared" si="0"/>
-        <v>888</v>
-      </c>
-      <c r="C93" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
-        <v>43990</v>
-      </c>
-      <c r="B94" s="2">
-        <f t="shared" si="0"/>
-        <v>930</v>
-      </c>
-      <c r="C94" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
-        <v>43991</v>
-      </c>
-      <c r="B95" s="2">
-        <f t="shared" si="0"/>
-        <v>975</v>
-      </c>
-      <c r="C95" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="4">
-        <v>43992</v>
-      </c>
-      <c r="B96" s="2">
-        <f t="shared" si="0"/>
-        <v>1012</v>
-      </c>
-      <c r="C96" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
-        <v>43993</v>
-      </c>
-      <c r="B97" s="2">
-        <f t="shared" si="0"/>
-        <v>1049</v>
-      </c>
-      <c r="C97" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="4">
-        <v>43994</v>
-      </c>
-      <c r="B98" s="2">
-        <f t="shared" si="0"/>
-        <v>1095</v>
-      </c>
-      <c r="C98" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
-        <v>43995</v>
-      </c>
-      <c r="B99" s="2">
-        <f t="shared" si="0"/>
-        <v>1139</v>
-      </c>
-      <c r="C99" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="4">
-        <v>43996</v>
-      </c>
-      <c r="B100" s="2">
-        <f t="shared" si="0"/>
-        <v>1171</v>
-      </c>
-      <c r="C100" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="4">
-        <v>43997</v>
-      </c>
-      <c r="B101" s="2">
-        <f t="shared" si="0"/>
-        <v>1209</v>
-      </c>
-      <c r="C101" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>44000</v>
+      </c>
+      <c r="B104" s="2">
+        <f t="shared" si="0"/>
+        <v>1343</v>
+      </c>
+      <c r="C104" s="2">
         <v>38</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="4">
-        <v>43998</v>
-      </c>
-      <c r="B102" s="2">
-        <f t="shared" si="0"/>
-        <v>1262</v>
-      </c>
-      <c r="C102" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
-        <v>43999</v>
-      </c>
-      <c r="B103" s="2">
-        <f t="shared" si="0"/>
-        <v>1310</v>
-      </c>
-      <c r="C103" s="2">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103:B104"/>
+      <selection activeCell="B104" sqref="B104:B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B104" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B105" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1645,6 +1645,18 @@
       </c>
       <c r="C104" s="2">
         <v>3803</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>44001</v>
+      </c>
+      <c r="B105" s="2">
+        <f t="shared" si="1"/>
+        <v>105535</v>
+      </c>
+      <c r="C105" s="2">
+        <v>3243</v>
       </c>
     </row>
   </sheetData>
@@ -1660,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103:B104"/>
+      <selection activeCell="B104" sqref="B104:B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2855,7 +2867,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B104" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B105" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -2884,6 +2896,18 @@
       </c>
       <c r="C104" s="2">
         <v>1975</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>44001</v>
+      </c>
+      <c r="B105" s="2">
+        <f t="shared" si="1"/>
+        <v>42945</v>
+      </c>
+      <c r="C105" s="2">
+        <v>2781</v>
       </c>
     </row>
   </sheetData>
@@ -2895,10 +2919,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104:B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3243,7 +3267,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B104" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B105" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4124,6 +4148,18 @@
       </c>
       <c r="C104" s="2">
         <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>44001</v>
+      </c>
+      <c r="B105" s="2">
+        <f t="shared" si="0"/>
+        <v>1388</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104:B105"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105:B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B105" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B106" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1657,6 +1657,18 @@
       </c>
       <c r="C105" s="2">
         <v>3243</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B106" s="2">
+        <f t="shared" si="1"/>
+        <v>108775</v>
+      </c>
+      <c r="C106" s="2">
+        <v>3240</v>
       </c>
     </row>
   </sheetData>
@@ -1672,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104:B105"/>
+      <selection activeCell="B105" sqref="B105:B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2867,7 +2879,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B105" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B106" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -2908,6 +2920,18 @@
       </c>
       <c r="C105" s="2">
         <v>2781</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B106" s="2">
+        <f t="shared" si="1"/>
+        <v>43993</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1048</v>
       </c>
     </row>
   </sheetData>
@@ -2919,10 +2943,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104:B105"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105:B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3267,7 +3291,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B105" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B106" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4160,6 +4184,18 @@
       </c>
       <c r="C105" s="2">
         <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>44002</v>
+      </c>
+      <c r="B106" s="2">
+        <f t="shared" si="0"/>
+        <v>1425</v>
+      </c>
+      <c r="C106" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105:B106"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106:B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B106" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B107" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1669,6 +1669,18 @@
       </c>
       <c r="C106" s="2">
         <v>3240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>44003</v>
+      </c>
+      <c r="B107" s="2">
+        <f t="shared" si="1"/>
+        <v>112306</v>
+      </c>
+      <c r="C107" s="2">
+        <v>3531</v>
       </c>
     </row>
   </sheetData>
@@ -1684,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105:B106"/>
+      <selection activeCell="B106" sqref="B106:B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,7 +2891,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B106" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B107" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -2932,6 +2944,18 @@
       </c>
       <c r="C106" s="2">
         <v>1048</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>44003</v>
+      </c>
+      <c r="B107" s="2">
+        <f t="shared" si="1"/>
+        <v>45077</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
@@ -2943,10 +2967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105:B106"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B117" sqref="B116:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3291,7 +3315,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B106" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B107" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4196,6 +4220,18 @@
       </c>
       <c r="C106" s="2">
         <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>44003</v>
+      </c>
+      <c r="B107" s="2">
+        <f t="shared" si="0"/>
+        <v>1464</v>
+      </c>
+      <c r="C107" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106:B107"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107:B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B107" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B108" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1681,6 +1681,18 @@
       </c>
       <c r="C107" s="2">
         <v>3531</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B108" s="2">
+        <f t="shared" si="1"/>
+        <v>115786</v>
+      </c>
+      <c r="C108" s="2">
+        <v>3480</v>
       </c>
     </row>
   </sheetData>
@@ -1696,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106:B107"/>
+      <selection activeCell="B107" sqref="B107:B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,7 +2903,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B107" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B108" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -2956,6 +2968,18 @@
       </c>
       <c r="C107" s="2">
         <v>1084</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B108" s="2">
+        <f t="shared" si="1"/>
+        <v>46755</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1678</v>
       </c>
     </row>
   </sheetData>
@@ -2967,10 +2991,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B117" sqref="B116:B117"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3315,7 +3339,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B107" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B108" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4232,6 +4256,18 @@
       </c>
       <c r="C107" s="2">
         <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B108" s="2">
+        <f t="shared" si="0"/>
+        <v>1502</v>
+      </c>
+      <c r="C108" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107:B108"/>
+      <selection activeCell="B108" sqref="B108:B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B108" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B109" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1693,6 +1693,18 @@
       </c>
       <c r="C108" s="2">
         <v>3480</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B109" s="2">
+        <f t="shared" si="1"/>
+        <v>119198</v>
+      </c>
+      <c r="C109" s="2">
+        <v>3412</v>
       </c>
     </row>
   </sheetData>
@@ -1708,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107:B108"/>
+      <selection activeCell="B108" sqref="B108:B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2903,7 +2915,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B108" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B109" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -2980,6 +2992,18 @@
       </c>
       <c r="C108" s="2">
         <v>1678</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B109" s="2">
+        <f t="shared" si="1"/>
+        <v>47635</v>
+      </c>
+      <c r="C109" s="2">
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -2991,10 +3015,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+      <selection activeCell="B108" sqref="B108:B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3339,7 +3363,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B108" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B109" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4268,6 +4292,18 @@
       </c>
       <c r="C108" s="2">
         <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>44005</v>
+      </c>
+      <c r="B109" s="2">
+        <f t="shared" si="0"/>
+        <v>1545</v>
+      </c>
+      <c r="C109" s="2">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108:B109"/>
+      <selection activeCell="B109" sqref="B109:B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B109" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B110" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1705,6 +1705,18 @@
       </c>
       <c r="C109" s="2">
         <v>3412</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>44006</v>
+      </c>
+      <c r="B110" s="2">
+        <f t="shared" si="1"/>
+        <v>122660</v>
+      </c>
+      <c r="C110" s="2">
+        <v>3462</v>
       </c>
     </row>
   </sheetData>
@@ -1720,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108:B109"/>
+      <selection activeCell="B109" sqref="B109:B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2915,7 +2927,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B109" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B110" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3004,6 +3016,18 @@
       </c>
       <c r="C109" s="2">
         <v>880</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>44006</v>
+      </c>
+      <c r="B110" s="2">
+        <f t="shared" si="1"/>
+        <v>49666</v>
+      </c>
+      <c r="C110" s="2">
+        <v>2031</v>
       </c>
     </row>
   </sheetData>
@@ -3015,10 +3039,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108:B109"/>
+      <selection activeCell="B109" sqref="B109:B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3363,7 +3387,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B109" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B110" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4304,6 +4328,18 @@
       </c>
       <c r="C109" s="2">
         <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>44006</v>
+      </c>
+      <c r="B110" s="2">
+        <f t="shared" si="0"/>
+        <v>1582</v>
+      </c>
+      <c r="C110" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109:B110"/>
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,6 +1717,14 @@
       </c>
       <c r="C110" s="2">
         <v>3462</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>44007</v>
+      </c>
+      <c r="C111" s="2">
+        <v>3946</v>
       </c>
     </row>
   </sheetData>
@@ -1732,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109:B110"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110:B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2927,7 +2935,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B110" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B111" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3028,6 +3036,18 @@
       </c>
       <c r="C110" s="2">
         <v>2031</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>44007</v>
+      </c>
+      <c r="B111" s="2">
+        <f t="shared" si="1"/>
+        <v>51495</v>
+      </c>
+      <c r="C111" s="2">
+        <v>1829</v>
       </c>
     </row>
   </sheetData>
@@ -3039,10 +3059,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109:B110"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110:B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3387,7 +3407,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B110" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B111" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4340,6 +4360,18 @@
       </c>
       <c r="C110" s="2">
         <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>44007</v>
+      </c>
+      <c r="B111" s="2">
+        <f t="shared" si="0"/>
+        <v>1621</v>
+      </c>
+      <c r="C111" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+      <selection activeCell="B111" sqref="B111:B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B110" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B112" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1723,8 +1723,24 @@
       <c r="A111" s="4">
         <v>44007</v>
       </c>
+      <c r="B111" s="2">
+        <f t="shared" si="1"/>
+        <v>126606</v>
+      </c>
       <c r="C111" s="2">
         <v>3946</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>44008</v>
+      </c>
+      <c r="B112" s="2">
+        <f t="shared" si="1"/>
+        <v>130474</v>
+      </c>
+      <c r="C112" s="2">
+        <v>3868</v>
       </c>
     </row>
   </sheetData>
@@ -1740,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110:B111"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111:B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2935,7 +2951,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B111" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B112" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3048,6 +3064,18 @@
       </c>
       <c r="C111" s="2">
         <v>1829</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>44008</v>
+      </c>
+      <c r="B112" s="2">
+        <f t="shared" si="1"/>
+        <v>53133</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1638</v>
       </c>
     </row>
   </sheetData>
@@ -3059,10 +3087,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110:B111"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111:B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3407,7 +3435,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B111" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B112" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4372,6 +4400,18 @@
       </c>
       <c r="C111" s="2">
         <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>44008</v>
+      </c>
+      <c r="B112" s="2">
+        <f t="shared" si="0"/>
+        <v>1661</v>
+      </c>
+      <c r="C112" s="2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111:B112"/>
+      <selection activeCell="B112" sqref="B112:B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B112" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B113" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1741,6 +1741,18 @@
       </c>
       <c r="C112" s="2">
         <v>3868</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>44009</v>
+      </c>
+      <c r="B113" s="2">
+        <f t="shared" si="1"/>
+        <v>133978</v>
+      </c>
+      <c r="C113" s="2">
+        <v>3504</v>
       </c>
     </row>
   </sheetData>
@@ -1756,10 +1768,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111:B112"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112:B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2951,7 +2963,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B112" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B113" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3076,6 +3088,18 @@
       </c>
       <c r="C112" s="2">
         <v>1638</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>44009</v>
+      </c>
+      <c r="B113" s="2">
+        <f t="shared" si="1"/>
+        <v>54318</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1185</v>
       </c>
     </row>
   </sheetData>
@@ -3087,10 +3111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111:B112"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112:B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3435,7 +3459,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B112" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B113" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4412,6 +4436,18 @@
       </c>
       <c r="C112" s="2">
         <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>44009</v>
+      </c>
+      <c r="B113" s="2">
+        <f t="shared" si="0"/>
+        <v>1695</v>
+      </c>
+      <c r="C113" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112:B113"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114:B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B113" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B115" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1753,6 +1753,30 @@
       </c>
       <c r="C113" s="2">
         <v>3504</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>44010</v>
+      </c>
+      <c r="B114" s="2">
+        <f t="shared" si="1"/>
+        <v>137787</v>
+      </c>
+      <c r="C114" s="2">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>44011</v>
+      </c>
+      <c r="B115" s="2">
+        <f t="shared" si="1"/>
+        <v>141801</v>
+      </c>
+      <c r="C115" s="2">
+        <v>4014</v>
       </c>
     </row>
   </sheetData>
@@ -1768,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112:B113"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114:B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,7 +2987,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B113" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B115" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3100,6 +3124,30 @@
       </c>
       <c r="C113" s="2">
         <v>1185</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>44010</v>
+      </c>
+      <c r="B114" s="2">
+        <f t="shared" si="1"/>
+        <v>55727</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>44011</v>
+      </c>
+      <c r="B115" s="2">
+        <f t="shared" si="1"/>
+        <v>57780</v>
+      </c>
+      <c r="C115" s="2">
+        <v>2053</v>
       </c>
     </row>
   </sheetData>
@@ -3111,10 +3159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112:B113"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114:B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,7 +3507,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B113" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B115" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4448,6 +4496,30 @@
       </c>
       <c r="C113" s="2">
         <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>44010</v>
+      </c>
+      <c r="B114" s="2">
+        <f t="shared" si="0"/>
+        <v>1738</v>
+      </c>
+      <c r="C114" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>44011</v>
+      </c>
+      <c r="B115" s="2">
+        <f t="shared" si="0"/>
+        <v>1783</v>
+      </c>
+      <c r="C115" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114:B115"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115:B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B115" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B116" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1777,6 +1777,18 @@
       </c>
       <c r="C115" s="2">
         <v>4014</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B116" s="2">
+        <f t="shared" si="1"/>
+        <v>145483</v>
+      </c>
+      <c r="C116" s="2">
+        <v>3682</v>
       </c>
     </row>
   </sheetData>
@@ -1792,10 +1804,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114:B115"/>
+      <selection activeCell="B115" sqref="B115:B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2987,7 +2999,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B115" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B116" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3148,6 +3160,18 @@
       </c>
       <c r="C115" s="2">
         <v>2053</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B116" s="2">
+        <f t="shared" si="1"/>
+        <v>59624</v>
+      </c>
+      <c r="C116" s="2">
+        <v>1844</v>
       </c>
     </row>
   </sheetData>
@@ -3159,10 +3183,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114:B115"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115:B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,7 +3531,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B115" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B116" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4520,6 +4544,18 @@
       </c>
       <c r="C115" s="2">
         <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B116" s="2">
+        <f t="shared" si="0"/>
+        <v>1847</v>
+      </c>
+      <c r="C116" s="2">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115:B116"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B116" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B117" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1789,6 +1789,18 @@
       </c>
       <c r="C116" s="2">
         <v>3682</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B117" s="2">
+        <f t="shared" si="1"/>
+        <v>149258</v>
+      </c>
+      <c r="C117" s="2">
+        <v>3775</v>
       </c>
     </row>
   </sheetData>
@@ -1804,10 +1816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115:B116"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2999,7 +3011,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B116" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B117" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3172,6 +3184,18 @@
       </c>
       <c r="C116" s="2">
         <v>1844</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B117" s="2">
+        <f t="shared" si="1"/>
+        <v>62508</v>
+      </c>
+      <c r="C117" s="2">
+        <v>2884</v>
       </c>
     </row>
   </sheetData>
@@ -3183,10 +3207,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115:B116"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3531,7 +3555,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B116" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B117" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4556,6 +4580,18 @@
       </c>
       <c r="C116" s="2">
         <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B117" s="2">
+        <f t="shared" si="0"/>
+        <v>1888</v>
+      </c>
+      <c r="C117" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116:B117"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B117" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B118" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1801,6 +1801,18 @@
       </c>
       <c r="C117" s="2">
         <v>3775</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>44014</v>
+      </c>
+      <c r="B118" s="2">
+        <f t="shared" si="1"/>
+        <v>153277</v>
+      </c>
+      <c r="C118" s="2">
+        <v>4019</v>
       </c>
     </row>
   </sheetData>
@@ -1816,10 +1828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116:B117"/>
+      <selection activeCell="B117" sqref="B117:B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,7 +3023,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B117" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B118" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3196,6 +3208,18 @@
       </c>
       <c r="C117" s="2">
         <v>2884</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>44014</v>
+      </c>
+      <c r="B118" s="2">
+        <f t="shared" si="1"/>
+        <v>66842</v>
+      </c>
+      <c r="C118" s="2">
+        <v>4334</v>
       </c>
     </row>
   </sheetData>
@@ -3207,10 +3231,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116:B117"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3555,7 +3579,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B117" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B118" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4592,6 +4616,18 @@
       </c>
       <c r="C117" s="2">
         <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>44014</v>
+      </c>
+      <c r="B118" s="2">
+        <f t="shared" si="0"/>
+        <v>1926</v>
+      </c>
+      <c r="C118" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B118" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B119" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1813,6 +1813,18 @@
       </c>
       <c r="C118" s="2">
         <v>4019</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>44015</v>
+      </c>
+      <c r="B119" s="2">
+        <f t="shared" si="1"/>
+        <v>156391</v>
+      </c>
+      <c r="C119" s="2">
+        <v>3114</v>
       </c>
     </row>
   </sheetData>
@@ -1828,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117:B118"/>
+      <selection activeCell="B118" sqref="B118:B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3023,7 +3035,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B118" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B119" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3220,6 +3232,18 @@
       </c>
       <c r="C118" s="2">
         <v>4334</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>44015</v>
+      </c>
+      <c r="B119" s="2">
+        <f t="shared" si="1"/>
+        <v>68448</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1606</v>
       </c>
     </row>
   </sheetData>
@@ -3231,10 +3255,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+      <selection activeCell="B118" sqref="B118:B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3579,7 +3603,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B118" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B119" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4628,6 +4652,18 @@
       </c>
       <c r="C118" s="2">
         <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>44015</v>
+      </c>
+      <c r="B119" s="2">
+        <f t="shared" si="0"/>
+        <v>1968</v>
+      </c>
+      <c r="C119" s="2">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+      <selection activeCell="B119" sqref="B119:B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B119" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B120" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1825,6 +1825,18 @@
       </c>
       <c r="C119" s="2">
         <v>3114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>44016</v>
+      </c>
+      <c r="B120" s="2">
+        <f t="shared" si="1"/>
+        <v>159679</v>
+      </c>
+      <c r="C120" s="2">
+        <v>3288</v>
       </c>
     </row>
   </sheetData>
@@ -1840,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118:B119"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119:B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3035,7 +3047,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B119" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B120" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3244,6 +3256,18 @@
       </c>
       <c r="C119" s="2">
         <v>1606</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>44016</v>
+      </c>
+      <c r="B120" s="2">
+        <f t="shared" si="1"/>
+        <v>71121</v>
+      </c>
+      <c r="C120" s="2">
+        <v>2673</v>
       </c>
     </row>
   </sheetData>
@@ -3255,10 +3279,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118:B119"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119:B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3603,7 +3627,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B119" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B120" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4664,6 +4688,18 @@
       </c>
       <c r="C119" s="2">
         <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>44016</v>
+      </c>
+      <c r="B120" s="2">
+        <f t="shared" si="0"/>
+        <v>1997</v>
+      </c>
+      <c r="C120" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119:B120"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120:B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B120" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B121" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1837,6 +1837,18 @@
       </c>
       <c r="C120" s="2">
         <v>3288</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>44017</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" si="1"/>
+        <v>162417</v>
+      </c>
+      <c r="C121" s="2">
+        <v>2738</v>
       </c>
     </row>
   </sheetData>
@@ -1852,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119:B120"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120:B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3047,7 +3059,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B120" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B121" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3268,6 +3280,18 @@
       </c>
       <c r="C120" s="2">
         <v>2673</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>44017</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" si="1"/>
+        <v>73025</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1904</v>
       </c>
     </row>
   </sheetData>
@@ -3279,10 +3303,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119:B120"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120:B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3627,7 +3651,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B120" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B121" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4700,6 +4724,18 @@
       </c>
       <c r="C120" s="2">
         <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>44017</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" si="0"/>
+        <v>2052</v>
+      </c>
+      <c r="C121" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120:B121"/>
+      <selection activeCell="B121" sqref="B121:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B121" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B122" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1849,6 +1849,18 @@
       </c>
       <c r="C121" s="2">
         <v>2738</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>44018</v>
+      </c>
+      <c r="B122" s="2">
+        <f t="shared" si="1"/>
+        <v>165618</v>
+      </c>
+      <c r="C122" s="2">
+        <v>3201</v>
       </c>
     </row>
   </sheetData>
@@ -1864,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120:B121"/>
+      <selection activeCell="B121" sqref="B121:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,7 +3071,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B121" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B122" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3292,6 +3304,18 @@
       </c>
       <c r="C121" s="2">
         <v>1904</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>44018</v>
+      </c>
+      <c r="B122" s="2">
+        <f t="shared" si="1"/>
+        <v>76549</v>
+      </c>
+      <c r="C122" s="2">
+        <v>3524</v>
       </c>
     </row>
   </sheetData>
@@ -3303,10 +3327,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120:B121"/>
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4738,6 +4762,14 @@
         <v>55</v>
       </c>
     </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>44018</v>
+      </c>
+      <c r="C122" s="2">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C28"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121:B122"/>
+      <selection activeCell="B122" sqref="B122:B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B122" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B123" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1861,6 +1861,18 @@
       </c>
       <c r="C122" s="2">
         <v>3201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>44019</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" si="1"/>
+        <v>168645</v>
+      </c>
+      <c r="C123" s="2">
+        <v>3027</v>
       </c>
     </row>
   </sheetData>
@@ -1876,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121:B122"/>
+      <selection activeCell="B122" sqref="B122:B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3071,7 +3083,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B122" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B123" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3316,6 +3328,18 @@
       </c>
       <c r="C122" s="2">
         <v>3524</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>44019</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" si="1"/>
+        <v>78502</v>
+      </c>
+      <c r="C123" s="2">
+        <v>1953</v>
       </c>
     </row>
   </sheetData>
@@ -3327,10 +3351,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+      <selection activeCell="B121" sqref="B121:B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3675,7 +3699,7 @@
         <v>43927</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:B121" si="0">SUM(B30+C31)</f>
+        <f t="shared" ref="B31:B122" si="0">SUM(B30+C31)</f>
         <v>12</v>
       </c>
       <c r="C31" s="2">
@@ -4766,8 +4790,24 @@
       <c r="A122" s="4">
         <v>44018</v>
       </c>
+      <c r="B122" s="2">
+        <f t="shared" si="0"/>
+        <v>2096</v>
+      </c>
       <c r="C122" s="2">
         <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>44019</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" ref="B123" si="1">SUM(B122+C123)</f>
+        <v>2151</v>
+      </c>
+      <c r="C123" s="2">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122:B123"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123:B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B123" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B124" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1873,6 +1873,18 @@
       </c>
       <c r="C123" s="2">
         <v>3027</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>44020</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="1"/>
+        <v>172134</v>
+      </c>
+      <c r="C124" s="2">
+        <v>3489</v>
       </c>
     </row>
   </sheetData>
@@ -1888,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122:B123"/>
+      <selection activeCell="B123" sqref="B123:B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3083,7 +3095,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B123" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B124" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3340,6 +3352,18 @@
       </c>
       <c r="C123" s="2">
         <v>1953</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>44020</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="1"/>
+        <v>81238</v>
+      </c>
+      <c r="C124" s="2">
+        <v>2736</v>
       </c>
     </row>
   </sheetData>
@@ -3351,10 +3375,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121:B123"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123:B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4803,11 +4827,23 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B124" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
         <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>44020</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="1"/>
+        <v>2197</v>
+      </c>
+      <c r="C124" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123:B124"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B124" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B125" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1885,6 +1885,18 @@
       </c>
       <c r="C124" s="2">
         <v>3489</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>44021</v>
+      </c>
+      <c r="B125" s="2">
+        <f t="shared" si="1"/>
+        <v>175494</v>
+      </c>
+      <c r="C125" s="2">
+        <v>3360</v>
       </c>
     </row>
   </sheetData>
@@ -1900,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123:B124"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3095,7 +3107,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B124" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B125" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3364,6 +3376,18 @@
       </c>
       <c r="C124" s="2">
         <v>2736</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>44021</v>
+      </c>
+      <c r="B125" s="2">
+        <f t="shared" si="1"/>
+        <v>84944</v>
+      </c>
+      <c r="C125" s="2">
+        <v>3706</v>
       </c>
     </row>
   </sheetData>
@@ -3375,10 +3399,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123:B124"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124:B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4827,7 +4851,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B124" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B125" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -4844,6 +4868,18 @@
       </c>
       <c r="C124" s="2">
         <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>44021</v>
+      </c>
+      <c r="B125" s="2">
+        <f t="shared" si="1"/>
+        <v>2238</v>
+      </c>
+      <c r="C125" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125:B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B125" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B126" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1897,6 +1897,18 @@
       </c>
       <c r="C125" s="2">
         <v>3360</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>44022</v>
+      </c>
+      <c r="B126" s="2">
+        <f t="shared" si="1"/>
+        <v>178443</v>
+      </c>
+      <c r="C126" s="2">
+        <v>2949</v>
       </c>
     </row>
   </sheetData>
@@ -1912,10 +1924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125:B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3107,7 +3119,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B125" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B126" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3388,6 +3400,18 @@
       </c>
       <c r="C125" s="2">
         <v>3706</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>44022</v>
+      </c>
+      <c r="B126" s="2">
+        <f t="shared" si="1"/>
+        <v>86806</v>
+      </c>
+      <c r="C126" s="2">
+        <v>1862</v>
       </c>
     </row>
   </sheetData>
@@ -3399,10 +3423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124:B125"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125:B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4851,7 +4875,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B125" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B126" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -4880,6 +4904,18 @@
       </c>
       <c r="C125" s="2">
         <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>44022</v>
+      </c>
+      <c r="B126" s="2">
+        <f t="shared" si="1"/>
+        <v>2275</v>
+      </c>
+      <c r="C126" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125:B126"/>
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B126" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B127" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1909,6 +1909,18 @@
       </c>
       <c r="C126" s="2">
         <v>2949</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>44023</v>
+      </c>
+      <c r="B127" s="2">
+        <f t="shared" si="1"/>
+        <v>181129</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2686</v>
       </c>
     </row>
   </sheetData>
@@ -1924,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125:B126"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3119,7 +3131,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B126" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B127" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3300,10 +3312,10 @@
       </c>
       <c r="B117" s="2">
         <f t="shared" si="1"/>
-        <v>62508</v>
+        <v>62108</v>
       </c>
       <c r="C117" s="2">
-        <v>2884</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3312,7 +3324,7 @@
       </c>
       <c r="B118" s="2">
         <f t="shared" si="1"/>
-        <v>66842</v>
+        <v>66442</v>
       </c>
       <c r="C118" s="2">
         <v>4334</v>
@@ -3324,7 +3336,7 @@
       </c>
       <c r="B119" s="2">
         <f t="shared" si="1"/>
-        <v>68448</v>
+        <v>68048</v>
       </c>
       <c r="C119" s="2">
         <v>1606</v>
@@ -3336,7 +3348,7 @@
       </c>
       <c r="B120" s="2">
         <f t="shared" si="1"/>
-        <v>71121</v>
+        <v>70721</v>
       </c>
       <c r="C120" s="2">
         <v>2673</v>
@@ -3348,7 +3360,7 @@
       </c>
       <c r="B121" s="2">
         <f t="shared" si="1"/>
-        <v>73025</v>
+        <v>72625</v>
       </c>
       <c r="C121" s="2">
         <v>1904</v>
@@ -3360,7 +3372,7 @@
       </c>
       <c r="B122" s="2">
         <f t="shared" si="1"/>
-        <v>76549</v>
+        <v>76149</v>
       </c>
       <c r="C122" s="2">
         <v>3524</v>
@@ -3372,7 +3384,7 @@
       </c>
       <c r="B123" s="2">
         <f t="shared" si="1"/>
-        <v>78502</v>
+        <v>78102</v>
       </c>
       <c r="C123" s="2">
         <v>1953</v>
@@ -3384,7 +3396,7 @@
       </c>
       <c r="B124" s="2">
         <f t="shared" si="1"/>
-        <v>81238</v>
+        <v>80838</v>
       </c>
       <c r="C124" s="2">
         <v>2736</v>
@@ -3396,7 +3408,7 @@
       </c>
       <c r="B125" s="2">
         <f t="shared" si="1"/>
-        <v>84944</v>
+        <v>84544</v>
       </c>
       <c r="C125" s="2">
         <v>3706</v>
@@ -3408,10 +3420,22 @@
       </c>
       <c r="B126" s="2">
         <f t="shared" si="1"/>
-        <v>86806</v>
+        <v>86406</v>
       </c>
       <c r="C126" s="2">
         <v>1862</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>44023</v>
+      </c>
+      <c r="B127" s="2">
+        <f t="shared" si="1"/>
+        <v>88034</v>
+      </c>
+      <c r="C127" s="2">
+        <v>1628</v>
       </c>
     </row>
   </sheetData>
@@ -3423,10 +3447,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125:B126"/>
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4875,7 +4899,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B126" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B127" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -4916,6 +4940,18 @@
       </c>
       <c r="C126" s="2">
         <v>37</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>44023</v>
+      </c>
+      <c r="B127" s="2">
+        <f t="shared" si="1"/>
+        <v>2305</v>
+      </c>
+      <c r="C127" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B127" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B128" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1921,6 +1921,18 @@
       </c>
       <c r="C127" s="2">
         <v>2686</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>44024</v>
+      </c>
+      <c r="B128" s="2">
+        <f t="shared" si="1"/>
+        <v>183795</v>
+      </c>
+      <c r="C128" s="2">
+        <v>2666</v>
       </c>
     </row>
   </sheetData>
@@ -1936,10 +1948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3131,7 +3143,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B127" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B128" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3436,6 +3448,18 @@
       </c>
       <c r="C127" s="2">
         <v>1628</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>44024</v>
+      </c>
+      <c r="B128" s="2">
+        <f t="shared" si="1"/>
+        <v>93614</v>
+      </c>
+      <c r="C128" s="2">
+        <v>5580</v>
       </c>
     </row>
   </sheetData>
@@ -3447,10 +3471,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4899,7 +4923,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B127" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B128" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -4952,6 +4976,18 @@
       </c>
       <c r="C127" s="2">
         <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>44024</v>
+      </c>
+      <c r="B128" s="2">
+        <f t="shared" si="1"/>
+        <v>2352</v>
+      </c>
+      <c r="C128" s="2">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+      <selection activeCell="B128" sqref="B128:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B128" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B129" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1933,6 +1933,18 @@
       </c>
       <c r="C128" s="2">
         <v>2666</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>44025</v>
+      </c>
+      <c r="B129" s="2">
+        <f t="shared" si="1"/>
+        <v>186894</v>
+      </c>
+      <c r="C129" s="2">
+        <v>3099</v>
       </c>
     </row>
   </sheetData>
@@ -1948,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3143,7 +3155,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B128" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B129" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3460,6 +3472,18 @@
       </c>
       <c r="C128" s="2">
         <v>5580</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>44025</v>
+      </c>
+      <c r="B129" s="2">
+        <f t="shared" si="1"/>
+        <v>98317</v>
+      </c>
+      <c r="C129" s="2">
+        <v>4703</v>
       </c>
     </row>
   </sheetData>
@@ -3471,10 +3495,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4923,7 +4947,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B128" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B129" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -4988,6 +5012,18 @@
       </c>
       <c r="C128" s="2">
         <v>47</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>44025</v>
+      </c>
+      <c r="B129" s="2">
+        <f t="shared" si="1"/>
+        <v>2391</v>
+      </c>
+      <c r="C129" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128:B129"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129:B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B129" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B130" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1945,6 +1945,18 @@
       </c>
       <c r="C129" s="2">
         <v>3099</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>44026</v>
+      </c>
+      <c r="B130" s="2">
+        <f t="shared" si="1"/>
+        <v>190057</v>
+      </c>
+      <c r="C130" s="2">
+        <v>3163</v>
       </c>
     </row>
   </sheetData>
@@ -1960,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128:B129"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129:B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3155,7 +3167,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B129" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B130" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3484,6 +3496,18 @@
       </c>
       <c r="C129" s="2">
         <v>4703</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>44026</v>
+      </c>
+      <c r="B130" s="2">
+        <f t="shared" si="1"/>
+        <v>103227</v>
+      </c>
+      <c r="C130" s="2">
+        <v>4910</v>
       </c>
     </row>
   </sheetData>
@@ -3495,10 +3519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128:B129"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4947,7 +4971,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B129" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B130" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5024,6 +5048,18 @@
       </c>
       <c r="C129" s="2">
         <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>44026</v>
+      </c>
+      <c r="B130" s="2">
+        <f t="shared" si="1"/>
+        <v>2424</v>
+      </c>
+      <c r="C130" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129:B130"/>
+      <selection activeCell="B130" sqref="B130:B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B130" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B131" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1957,6 +1957,18 @@
       </c>
       <c r="C130" s="2">
         <v>3163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>44027</v>
+      </c>
+      <c r="B131" s="2">
+        <f t="shared" si="1"/>
+        <v>193590</v>
+      </c>
+      <c r="C131" s="2">
+        <v>3533</v>
       </c>
     </row>
   </sheetData>
@@ -1972,10 +1984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129:B130"/>
+      <selection activeCell="B130" sqref="B130:B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3167,7 +3179,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B130" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B131" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3508,6 +3520,18 @@
       </c>
       <c r="C130" s="2">
         <v>4910</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>44027</v>
+      </c>
+      <c r="B131" s="2">
+        <f t="shared" si="1"/>
+        <v>105023</v>
+      </c>
+      <c r="C131" s="2">
+        <v>1796</v>
       </c>
     </row>
   </sheetData>
@@ -3519,10 +3543,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130:B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4971,7 +4995,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B130" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B131" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5059,6 +5083,18 @@
         <v>2424</v>
       </c>
       <c r="C130" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>44027</v>
+      </c>
+      <c r="B131" s="2">
+        <f t="shared" si="1"/>
+        <v>2457</v>
+      </c>
+      <c r="C131" s="2">
         <v>33</v>
       </c>
     </row>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130:B131"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131:A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B131" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B132" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1969,6 +1969,18 @@
       </c>
       <c r="C131" s="2">
         <v>3533</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>44028</v>
+      </c>
+      <c r="B132" s="2">
+        <f t="shared" si="1"/>
+        <v>196323</v>
+      </c>
+      <c r="C132" s="2">
+        <v>2733</v>
       </c>
     </row>
   </sheetData>
@@ -1984,10 +1996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130:B131"/>
+      <selection activeCell="A131" sqref="A131:A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3179,7 +3191,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B131" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B132" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3532,6 +3544,18 @@
       </c>
       <c r="C131" s="2">
         <v>1796</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>44028</v>
+      </c>
+      <c r="B132" s="2">
+        <f t="shared" si="1"/>
+        <v>106963</v>
+      </c>
+      <c r="C132" s="2">
+        <v>1940</v>
       </c>
     </row>
   </sheetData>
@@ -3543,10 +3567,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130:B131"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131:B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4995,7 +5019,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B131" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B132" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5096,6 +5120,18 @@
       </c>
       <c r="C131" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>44028</v>
+      </c>
+      <c r="B132" s="2">
+        <f t="shared" si="1"/>
+        <v>2496</v>
+      </c>
+      <c r="C132" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:A132"/>
+      <selection activeCell="B132" sqref="B132:B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B132" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B133" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1981,6 +1981,18 @@
       </c>
       <c r="C132" s="2">
         <v>2733</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>44029</v>
+      </c>
+      <c r="B133" s="2">
+        <f t="shared" si="1"/>
+        <v>199357</v>
+      </c>
+      <c r="C133" s="2">
+        <v>3034</v>
       </c>
     </row>
   </sheetData>
@@ -1996,10 +2008,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131:A132"/>
+      <selection activeCell="B132" sqref="B132:B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3191,7 +3203,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B132" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B133" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3556,6 +3568,18 @@
       </c>
       <c r="C132" s="2">
         <v>1940</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>44029</v>
+      </c>
+      <c r="B133" s="2">
+        <f t="shared" si="1"/>
+        <v>108725</v>
+      </c>
+      <c r="C133" s="2">
+        <v>1762</v>
       </c>
     </row>
   </sheetData>
@@ -3567,10 +3591,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131:B132"/>
+      <selection activeCell="B132" sqref="B132:B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5019,7 +5043,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B132" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B133" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5132,6 +5156,18 @@
       </c>
       <c r="C132" s="2">
         <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>44029</v>
+      </c>
+      <c r="B133" s="2">
+        <f t="shared" si="1"/>
+        <v>2547</v>
+      </c>
+      <c r="C133" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132:B133"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133:B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B133" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B134" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -1993,6 +1993,18 @@
       </c>
       <c r="C133" s="2">
         <v>3034</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>44030</v>
+      </c>
+      <c r="B134" s="2">
+        <f t="shared" si="1"/>
+        <v>202066</v>
+      </c>
+      <c r="C134" s="2">
+        <v>2709</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132:B133"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133:B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3203,7 +3215,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B133" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B134" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3580,6 +3592,18 @@
       </c>
       <c r="C133" s="2">
         <v>1762</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>44030</v>
+      </c>
+      <c r="B134" s="2">
+        <f t="shared" si="1"/>
+        <v>110098</v>
+      </c>
+      <c r="C134" s="2">
+        <v>1373</v>
       </c>
     </row>
   </sheetData>
@@ -3591,10 +3615,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C133"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132:B133"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133:B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5043,7 +5067,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B133" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B134" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5168,6 +5192,18 @@
       </c>
       <c r="C133" s="2">
         <v>51</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>44030</v>
+      </c>
+      <c r="B134" s="2">
+        <f t="shared" si="1"/>
+        <v>2581</v>
+      </c>
+      <c r="C134" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133:B134"/>
+      <selection activeCell="B134" sqref="B134:B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B134" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B135" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2005,6 +2005,18 @@
       </c>
       <c r="C134" s="2">
         <v>2709</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>44031</v>
+      </c>
+      <c r="B135" s="2">
+        <f t="shared" si="1"/>
+        <v>204525</v>
+      </c>
+      <c r="C135" s="2">
+        <v>2459</v>
       </c>
     </row>
   </sheetData>
@@ -2020,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133:B134"/>
+      <selection activeCell="B134" sqref="B134:B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3215,7 +3227,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B134" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B135" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3604,6 +3616,18 @@
       </c>
       <c r="C134" s="2">
         <v>1373</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>44031</v>
+      </c>
+      <c r="B135" s="2">
+        <f t="shared" si="1"/>
+        <v>111644</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1546</v>
       </c>
     </row>
   </sheetData>
@@ -3615,10 +3639,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133:B134"/>
+      <selection activeCell="B134" sqref="B134:B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5067,7 +5091,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B134" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B135" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5204,6 +5228,18 @@
       </c>
       <c r="C134" s="2">
         <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>44031</v>
+      </c>
+      <c r="B135" s="2">
+        <f t="shared" si="1"/>
+        <v>2618</v>
+      </c>
+      <c r="C135" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134:B135"/>
+      <selection activeCell="B135" sqref="B135:B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B135" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B136" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2017,6 +2017,18 @@
       </c>
       <c r="C135" s="2">
         <v>2459</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>44032</v>
+      </c>
+      <c r="B136" s="2">
+        <f t="shared" si="1"/>
+        <v>207453</v>
+      </c>
+      <c r="C136" s="2">
+        <v>2928</v>
       </c>
     </row>
   </sheetData>
@@ -2032,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134:B135"/>
+      <selection activeCell="B135" sqref="B135:B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3227,7 +3239,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B135" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B136" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3628,6 +3640,18 @@
       </c>
       <c r="C135" s="2">
         <v>1546</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>44032</v>
+      </c>
+      <c r="B136" s="2">
+        <f t="shared" si="1"/>
+        <v>113558</v>
+      </c>
+      <c r="C136" s="2">
+        <v>1914</v>
       </c>
     </row>
   </sheetData>
@@ -3639,10 +3663,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134:B135"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5091,7 +5115,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B135" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B136" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5240,6 +5264,18 @@
       </c>
       <c r="C135" s="2">
         <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>44032</v>
+      </c>
+      <c r="B136" s="2">
+        <f t="shared" si="1"/>
+        <v>2668</v>
+      </c>
+      <c r="C136" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135:B136"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136:B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B136" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B137" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2029,6 +2029,18 @@
       </c>
       <c r="C136" s="2">
         <v>2928</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>44033</v>
+      </c>
+      <c r="B137" s="2">
+        <f t="shared" si="1"/>
+        <v>210510</v>
+      </c>
+      <c r="C137" s="2">
+        <v>3057</v>
       </c>
     </row>
   </sheetData>
@@ -2044,10 +2056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135:B136"/>
+      <selection activeCell="B136" sqref="B136:B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3239,7 +3251,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B136" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B137" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3652,6 +3664,18 @@
       </c>
       <c r="C136" s="2">
         <v>1914</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>44033</v>
+      </c>
+      <c r="B137" s="2">
+        <f t="shared" si="1"/>
+        <v>115399</v>
+      </c>
+      <c r="C137" s="2">
+        <v>1841</v>
       </c>
     </row>
   </sheetData>
@@ -3663,10 +3687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+      <selection activeCell="B136" sqref="B136:B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5115,7 +5139,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B136" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B137" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5276,6 +5300,18 @@
       </c>
       <c r="C136" s="2">
         <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>44033</v>
+      </c>
+      <c r="B137" s="2">
+        <f t="shared" si="1"/>
+        <v>2709</v>
+      </c>
+      <c r="C137" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136:B137"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B137" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B138" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2041,6 +2041,18 @@
       </c>
       <c r="C137" s="2">
         <v>3057</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>44034</v>
+      </c>
+      <c r="B138" s="2">
+        <f t="shared" si="1"/>
+        <v>213254</v>
+      </c>
+      <c r="C138" s="2">
+        <v>2744</v>
       </c>
     </row>
   </sheetData>
@@ -2056,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136:B137"/>
+      <selection activeCell="B137" sqref="B137:B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3251,7 +3263,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B137" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B138" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3676,6 +3688,18 @@
       </c>
       <c r="C137" s="2">
         <v>1841</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>44034</v>
+      </c>
+      <c r="B138" s="2">
+        <f t="shared" si="1"/>
+        <v>117204</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1805</v>
       </c>
     </row>
   </sheetData>
@@ -3687,10 +3711,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136:B137"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137:B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5139,7 +5163,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B137" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B138" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5312,6 +5336,18 @@
       </c>
       <c r="C137" s="2">
         <v>41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>44034</v>
+      </c>
+      <c r="B138" s="2">
+        <f t="shared" si="1"/>
+        <v>2751</v>
+      </c>
+      <c r="C138" s="2">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+      <selection activeCell="B138" sqref="B138:B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B138" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B139" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2053,6 +2053,18 @@
       </c>
       <c r="C138" s="2">
         <v>2744</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>44035</v>
+      </c>
+      <c r="B139" s="2">
+        <f t="shared" si="1"/>
+        <v>216110</v>
+      </c>
+      <c r="C139" s="2">
+        <v>2856</v>
       </c>
     </row>
   </sheetData>
@@ -2068,10 +2080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137:B138"/>
+      <selection activeCell="B138" sqref="B138:B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3263,7 +3275,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B138" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B139" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3700,6 +3712,18 @@
       </c>
       <c r="C138" s="2">
         <v>1805</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>44035</v>
+      </c>
+      <c r="B139" s="2">
+        <f t="shared" si="1"/>
+        <v>119210</v>
+      </c>
+      <c r="C139" s="2">
+        <v>2006</v>
       </c>
     </row>
   </sheetData>
@@ -3711,10 +3735,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137:B138"/>
+      <selection activeCell="B138" sqref="B138:B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5163,7 +5187,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B138" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B139" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5348,6 +5372,18 @@
       </c>
       <c r="C138" s="2">
         <v>42</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>44035</v>
+      </c>
+      <c r="B139" s="2">
+        <f t="shared" si="1"/>
+        <v>2801</v>
+      </c>
+      <c r="C139" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138:B139"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139:B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B139" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B140" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2065,6 +2065,18 @@
       </c>
       <c r="C139" s="2">
         <v>2856</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>44036</v>
+      </c>
+      <c r="B140" s="2">
+        <f t="shared" si="1"/>
+        <v>218658</v>
+      </c>
+      <c r="C140" s="2">
+        <v>2548</v>
       </c>
     </row>
   </sheetData>
@@ -2080,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138:B139"/>
+      <selection activeCell="B139" sqref="B139:B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3275,7 +3287,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B139" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B140" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3724,6 +3736,18 @@
       </c>
       <c r="C139" s="2">
         <v>2006</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>44036</v>
+      </c>
+      <c r="B140" s="2">
+        <f t="shared" si="1"/>
+        <v>120978</v>
+      </c>
+      <c r="C140" s="2">
+        <v>1768</v>
       </c>
     </row>
   </sheetData>
@@ -3735,10 +3759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138:B139"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139:B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5187,7 +5211,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B139" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B140" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5384,6 +5408,18 @@
       </c>
       <c r="C139" s="2">
         <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>44036</v>
+      </c>
+      <c r="B140" s="2">
+        <f t="shared" si="1"/>
+        <v>2836</v>
+      </c>
+      <c r="C140" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139:B140"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B140" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B141" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2077,6 +2077,18 @@
       </c>
       <c r="C140" s="2">
         <v>2548</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>44037</v>
+      </c>
+      <c r="B141" s="2">
+        <f t="shared" si="1"/>
+        <v>221178</v>
+      </c>
+      <c r="C141" s="2">
+        <v>2520</v>
       </c>
     </row>
   </sheetData>
@@ -2092,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139:B140"/>
+      <selection activeCell="B140" sqref="B140:B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3287,7 +3299,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B140" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B141" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3748,6 +3760,18 @@
       </c>
       <c r="C140" s="2">
         <v>1768</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>44037</v>
+      </c>
+      <c r="B141" s="2">
+        <f t="shared" si="1"/>
+        <v>122092</v>
+      </c>
+      <c r="C141" s="2">
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
@@ -3759,10 +3783,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139:B140"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140:B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5211,7 +5235,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B140" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B141" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5420,6 +5444,18 @@
       </c>
       <c r="C140" s="2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>44037</v>
+      </c>
+      <c r="B141" s="2">
+        <f t="shared" si="1"/>
+        <v>2874</v>
+      </c>
+      <c r="C141" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B141" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B142" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2089,6 +2089,18 @@
       </c>
       <c r="C141" s="2">
         <v>2520</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>44038</v>
+      </c>
+      <c r="B142" s="2">
+        <f t="shared" si="1"/>
+        <v>223453</v>
+      </c>
+      <c r="C142" s="2">
+        <v>2275</v>
       </c>
     </row>
   </sheetData>
@@ -2104,10 +2116,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140:B141"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3299,7 +3311,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B141" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B142" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3772,6 +3784,18 @@
       </c>
       <c r="C141" s="2">
         <v>1114</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>44038</v>
+      </c>
+      <c r="B142" s="2">
+        <f t="shared" si="1"/>
+        <v>123884</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1792</v>
       </c>
     </row>
   </sheetData>
@@ -3783,10 +3807,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140:B141"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5235,7 +5259,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B141" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B142" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5456,6 +5480,18 @@
       </c>
       <c r="C141" s="2">
         <v>38</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>44038</v>
+      </c>
+      <c r="B142" s="2">
+        <f t="shared" si="1"/>
+        <v>2928</v>
+      </c>
+      <c r="C142" s="2">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142:B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B142" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B143" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2101,6 +2101,18 @@
       </c>
       <c r="C142" s="2">
         <v>2275</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>44039</v>
+      </c>
+      <c r="B143" s="2">
+        <f t="shared" si="1"/>
+        <v>226225</v>
+      </c>
+      <c r="C143" s="2">
+        <v>2772</v>
       </c>
     </row>
   </sheetData>
@@ -2116,10 +2128,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141:B142"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142:B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3311,7 +3323,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B142" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B143" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3796,6 +3808,18 @@
       </c>
       <c r="C142" s="2">
         <v>1792</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>44039</v>
+      </c>
+      <c r="B143" s="2">
+        <f t="shared" si="1"/>
+        <v>125683</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1799</v>
       </c>
     </row>
   </sheetData>
@@ -3807,10 +3831,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141:B142"/>
+      <selection activeCell="B142" sqref="B142:B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5259,7 +5283,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B142" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B143" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5492,6 +5516,18 @@
       </c>
       <c r="C142" s="2">
         <v>54</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>44039</v>
+      </c>
+      <c r="B143" s="2">
+        <f t="shared" si="1"/>
+        <v>2965</v>
+      </c>
+      <c r="C143" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142:B143"/>
+      <selection activeCell="B143" sqref="B143:B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B143" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B144" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2113,6 +2113,18 @@
       </c>
       <c r="C143" s="2">
         <v>2772</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>44040</v>
+      </c>
+      <c r="B144" s="2">
+        <f t="shared" si="1"/>
+        <v>229185</v>
+      </c>
+      <c r="C144" s="2">
+        <v>2960</v>
       </c>
     </row>
   </sheetData>
@@ -2128,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142:B143"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143:B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3323,7 +3335,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B143" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B144" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3820,6 +3832,18 @@
       </c>
       <c r="C143" s="2">
         <v>1799</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>44040</v>
+      </c>
+      <c r="B144" s="2">
+        <f t="shared" si="1"/>
+        <v>127414</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1731</v>
       </c>
     </row>
   </sheetData>
@@ -3831,10 +3855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142:B143"/>
+      <selection activeCell="B143" sqref="B143:B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5283,7 +5307,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B143" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B144" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5528,6 +5552,18 @@
       </c>
       <c r="C143" s="2">
         <v>37</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>44040</v>
+      </c>
+      <c r="B144" s="2">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="C144" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143:B144"/>
+      <selection activeCell="B144" sqref="B144:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B144" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B145" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2125,6 +2125,18 @@
       </c>
       <c r="C144" s="2">
         <v>2960</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>44041</v>
+      </c>
+      <c r="B145" s="2">
+        <f t="shared" si="1"/>
+        <v>232194</v>
+      </c>
+      <c r="C145" s="2">
+        <v>3009</v>
       </c>
     </row>
   </sheetData>
@@ -2140,10 +2152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143:B144"/>
+      <selection activeCell="B144" sqref="B144:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3335,7 +3347,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B144" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B145" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3844,6 +3856,18 @@
       </c>
       <c r="C144" s="2">
         <v>1731</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>44041</v>
+      </c>
+      <c r="B145" s="2">
+        <f t="shared" si="1"/>
+        <v>130292</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2878</v>
       </c>
     </row>
   </sheetData>
@@ -3855,10 +3879,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143:B144"/>
+      <selection activeCell="B144" sqref="B144:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5307,7 +5331,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B144" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B145" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5563,6 +5587,18 @@
         <v>3000</v>
       </c>
       <c r="C144" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>44041</v>
+      </c>
+      <c r="B145" s="2">
+        <f t="shared" si="1"/>
+        <v>3035</v>
+      </c>
+      <c r="C145" s="2">
         <v>35</v>
       </c>
     </row>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144:B145"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145:B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B145" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B146" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2138,6 +2138,21 @@
       <c r="C145" s="2">
         <v>3009</v>
       </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>44042</v>
+      </c>
+      <c r="B146" s="2">
+        <f t="shared" si="1"/>
+        <v>234889</v>
+      </c>
+      <c r="C146" s="2">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C28">
@@ -2152,10 +2167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144:B145"/>
+      <selection activeCell="B145" sqref="B145:B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3347,7 +3362,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B145" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B146" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3868,6 +3883,18 @@
       </c>
       <c r="C145" s="2">
         <v>2878</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>44042</v>
+      </c>
+      <c r="B146" s="2">
+        <f t="shared" si="1"/>
+        <v>132960</v>
+      </c>
+      <c r="C146" s="2">
+        <v>2668</v>
       </c>
     </row>
   </sheetData>
@@ -3879,10 +3906,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144:B145"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145:B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5331,7 +5358,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B145" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B146" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5600,6 +5627,18 @@
       </c>
       <c r="C145" s="2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>44042</v>
+      </c>
+      <c r="B146" s="2">
+        <f t="shared" si="1"/>
+        <v>3083</v>
+      </c>
+      <c r="C146" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145:B146"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146:B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B146" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B147" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2152,7 +2152,16 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="2"/>
+      <c r="A147" s="4">
+        <v>44043</v>
+      </c>
+      <c r="B147" s="2">
+        <f t="shared" si="1"/>
+        <v>237661</v>
+      </c>
+      <c r="C147" s="2">
+        <v>2772</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C28">
@@ -2167,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145:B146"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146:B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3362,7 +3371,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B146" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B147" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3895,6 +3904,18 @@
       </c>
       <c r="C146" s="2">
         <v>2668</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>44043</v>
+      </c>
+      <c r="B147" s="2">
+        <f t="shared" si="1"/>
+        <v>135136</v>
+      </c>
+      <c r="C147" s="2">
+        <v>2176</v>
       </c>
     </row>
   </sheetData>
@@ -3906,10 +3927,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145:B146"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146:B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5358,7 +5379,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B146" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B147" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5639,6 +5660,18 @@
       </c>
       <c r="C146" s="2">
         <v>48</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>44043</v>
+      </c>
+      <c r="B147" s="2">
+        <f t="shared" si="1"/>
+        <v>3111</v>
+      </c>
+      <c r="C147" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146:B147"/>
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B147" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B148" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2161,6 +2161,18 @@
       </c>
       <c r="C147" s="2">
         <v>2772</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>44044</v>
+      </c>
+      <c r="B148" s="2">
+        <f t="shared" si="1"/>
+        <v>239860</v>
+      </c>
+      <c r="C148" s="2">
+        <v>2199</v>
       </c>
     </row>
   </sheetData>
@@ -2176,10 +2188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146:B147"/>
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3371,7 +3383,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B147" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B148" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3916,6 +3928,18 @@
       </c>
       <c r="C147" s="2">
         <v>2176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>44044</v>
+      </c>
+      <c r="B148" s="2">
+        <f t="shared" si="1"/>
+        <v>136253</v>
+      </c>
+      <c r="C148" s="2">
+        <v>1117</v>
       </c>
     </row>
   </sheetData>
@@ -3927,10 +3951,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146:B147"/>
+      <selection activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5379,7 +5403,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B147" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B148" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5672,6 +5696,18 @@
       </c>
       <c r="C147" s="2">
         <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>44044</v>
+      </c>
+      <c r="B148" s="2">
+        <f t="shared" si="1"/>
+        <v>3132</v>
+      </c>
+      <c r="C148" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+      <selection activeCell="B148" sqref="B148:B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B148" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B149" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2173,6 +2173,18 @@
       </c>
       <c r="C148" s="2">
         <v>2199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>44045</v>
+      </c>
+      <c r="B149" s="2">
+        <f t="shared" si="1"/>
+        <v>240746</v>
+      </c>
+      <c r="C149" s="2">
+        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -2188,10 +2200,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+      <selection activeCell="B148" sqref="B148:B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,7 +3395,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B148" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B149" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3940,6 +3952,18 @@
       </c>
       <c r="C148" s="2">
         <v>1117</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>44045</v>
+      </c>
+      <c r="B149" s="2">
+        <f t="shared" si="1"/>
+        <v>136839</v>
+      </c>
+      <c r="C149" s="2">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -3951,10 +3975,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+      <selection activeCell="B148" sqref="B148:B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5403,7 +5427,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B148" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B149" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5708,6 +5732,18 @@
       </c>
       <c r="C148" s="2">
         <v>21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>44045</v>
+      </c>
+      <c r="B149" s="2">
+        <f t="shared" si="1"/>
+        <v>3154</v>
+      </c>
+      <c r="C149" s="2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148:B149"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149:B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B149" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B150" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2185,6 +2185,18 @@
       </c>
       <c r="C149" s="2">
         <v>886</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>44046</v>
+      </c>
+      <c r="B150" s="2">
+        <f t="shared" si="1"/>
+        <v>242102</v>
+      </c>
+      <c r="C150" s="2">
+        <v>1356</v>
       </c>
     </row>
   </sheetData>
@@ -2200,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148:B149"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3395,7 +3407,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B149" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B150" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3964,6 +3976,18 @@
       </c>
       <c r="C149" s="2">
         <v>586</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>44046</v>
+      </c>
+      <c r="B150" s="2">
+        <f t="shared" si="1"/>
+        <v>137905</v>
+      </c>
+      <c r="C150" s="2">
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -3975,10 +3999,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148:B149"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149:B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5427,7 +5451,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B149" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B150" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5744,6 +5768,18 @@
       </c>
       <c r="C149" s="2">
         <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>44046</v>
+      </c>
+      <c r="B150" s="2">
+        <f t="shared" si="1"/>
+        <v>3184</v>
+      </c>
+      <c r="C150" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Confirmed" sheetId="1" r:id="rId1"/>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149:B150"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150:B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B150" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B151" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2197,6 +2197,18 @@
       </c>
       <c r="C150" s="2">
         <v>1356</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>44047</v>
+      </c>
+      <c r="B151" s="2">
+        <f t="shared" si="1"/>
+        <v>244020</v>
+      </c>
+      <c r="C151" s="2">
+        <v>1918</v>
       </c>
     </row>
   </sheetData>
@@ -2212,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150:B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3407,7 +3419,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B150" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B151" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -3988,6 +4000,18 @@
       </c>
       <c r="C150" s="2">
         <v>1066</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>44047</v>
+      </c>
+      <c r="B151" s="2">
+        <f t="shared" si="1"/>
+        <v>139860</v>
+      </c>
+      <c r="C151" s="2">
+        <v>1955</v>
       </c>
     </row>
   </sheetData>
@@ -3999,10 +4023,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149:B150"/>
+      <selection activeCell="B150" sqref="B150:B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5451,7 +5475,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B150" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B151" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5780,6 +5804,18 @@
       </c>
       <c r="C150" s="2">
         <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>44047</v>
+      </c>
+      <c r="B151" s="2">
+        <f t="shared" si="1"/>
+        <v>3234</v>
+      </c>
+      <c r="C151" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
+++ b/DataSheet/COVID-19_Bangladesh_DataSheet.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150:B151"/>
+      <selection activeCell="B151" sqref="B151:B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1496,7 @@
         <v>43988</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" ref="B92:B151" si="1">SUM(B91+C92)</f>
+        <f t="shared" ref="B92:B152" si="1">SUM(B91+C92)</f>
         <v>63026</v>
       </c>
       <c r="C92" s="2">
@@ -2209,6 +2209,18 @@
       </c>
       <c r="C151" s="2">
         <v>1918</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>44048</v>
+      </c>
+      <c r="B152" s="2">
+        <f t="shared" si="1"/>
+        <v>246674</v>
+      </c>
+      <c r="C152" s="2">
+        <v>2654</v>
       </c>
     </row>
   </sheetData>
@@ -2224,10 +2236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150:B151"/>
+      <selection activeCell="B151" sqref="B151:B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3419,7 +3431,7 @@
         <v>43998</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" ref="B102:B151" si="1">SUM(B101+C102)</f>
+        <f t="shared" ref="B102:B152" si="1">SUM(B101+C102)</f>
         <v>36264</v>
       </c>
       <c r="C102" s="2">
@@ -4012,6 +4024,18 @@
       </c>
       <c r="C151" s="2">
         <v>1955</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>44048</v>
+      </c>
+      <c r="B152" s="2">
+        <f t="shared" si="1"/>
+        <v>141750</v>
+      </c>
+      <c r="C152" s="2">
+        <v>1890</v>
       </c>
     </row>
   </sheetData>
@@ -4023,10 +4047,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150:B151"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151:B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5475,7 +5499,7 @@
         <v>44019</v>
       </c>
       <c r="B123" s="2">
-        <f t="shared" ref="B123:B151" si="1">SUM(B122+C123)</f>
+        <f t="shared" ref="B123:B152" si="1">SUM(B122+C123)</f>
         <v>2151</v>
       </c>
       <c r="C123" s="2">
@@ -5816,6 +5840,18 @@
       </c>
       <c r="C151" s="2">
         <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>44048</v>
+      </c>
+      <c r="B152" s="2">
+        <f t="shared" si="1"/>
+        <v>3267</v>
+      </c>
+      <c r="C152" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
